--- a/outputs-HGR-r202/p__Firmicutes.xlsx
+++ b/outputs-HGR-r202/p__Firmicutes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D556"/>
+  <dimension ref="A1:E556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -887,6 +1007,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +1030,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -923,6 +1053,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1076,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -959,6 +1099,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1122,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -995,6 +1145,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1013,6 +1168,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1031,6 +1191,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1049,6 +1214,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1067,6 +1237,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1085,6 +1260,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1103,6 +1283,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1121,6 +1306,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1139,6 +1329,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1157,6 +1352,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1175,6 +1375,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1193,6 +1398,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1211,6 +1421,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1229,6 +1444,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1247,6 +1467,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1265,6 +1490,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1283,6 +1513,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1301,6 +1536,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1319,6 +1559,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1337,6 +1582,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1355,6 +1605,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1373,6 +1628,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1391,6 +1651,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1409,6 +1674,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1427,6 +1697,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1445,6 +1720,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1463,6 +1743,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1481,6 +1766,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1499,6 +1789,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1517,6 +1812,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1535,6 +1835,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1553,6 +1858,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1571,6 +1881,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1589,6 +1904,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1607,6 +1927,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1625,6 +1950,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1643,6 +1973,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1661,6 +1996,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1679,6 +2019,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1697,6 +2042,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1715,6 +2065,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1733,6 +2088,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1751,6 +2111,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1769,6 +2134,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1787,6 +2157,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1805,6 +2180,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1823,6 +2203,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1841,6 +2226,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1859,6 +2249,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1877,6 +2272,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1895,6 +2295,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1913,6 +2318,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -1931,6 +2341,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -1949,6 +2364,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1967,6 +2387,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1985,6 +2410,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2003,6 +2433,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2021,6 +2456,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2039,6 +2479,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2057,6 +2502,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2075,6 +2525,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2093,6 +2548,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2111,6 +2571,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2129,6 +2594,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2147,6 +2617,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2165,6 +2640,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2183,6 +2663,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2201,6 +2686,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2219,6 +2709,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2237,6 +2732,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2255,6 +2755,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2273,6 +2778,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2291,6 +2801,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2309,6 +2824,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2327,6 +2847,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2345,6 +2870,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2363,6 +2893,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2381,6 +2916,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2399,6 +2939,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2417,6 +2962,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2435,6 +2985,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2453,6 +3008,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -2471,6 +3031,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -2489,6 +3054,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2507,6 +3077,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2525,6 +3100,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2543,6 +3123,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2561,6 +3146,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2579,6 +3169,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -2597,6 +3192,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -2615,6 +3215,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -2633,6 +3238,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -2651,6 +3261,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -2669,6 +3284,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -2687,6 +3307,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -2705,6 +3330,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -2723,6 +3353,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -2741,6 +3376,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -2759,6 +3399,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -2777,6 +3422,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -2795,6 +3445,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -2813,6 +3468,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -2831,6 +3491,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -2849,6 +3514,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -2867,6 +3537,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -2885,6 +3560,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -2903,6 +3583,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -2921,6 +3606,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -2939,6 +3629,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -2957,6 +3652,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -2975,6 +3675,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -2993,6 +3698,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -3011,6 +3721,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -3029,6 +3744,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -3047,6 +3767,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -3065,6 +3790,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -3083,6 +3813,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -3101,6 +3836,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -3119,6 +3859,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -3137,6 +3882,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -3155,6 +3905,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -3173,6 +3928,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -3191,6 +3951,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -3209,6 +3974,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -3227,6 +3997,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -3245,6 +4020,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -3263,6 +4043,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -3281,6 +4066,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -3299,6 +4089,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -3317,6 +4112,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -3335,6 +4135,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -3353,6 +4158,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -3371,6 +4181,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -3389,6 +4204,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -3407,6 +4227,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -3425,6 +4250,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -3443,6 +4273,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -3461,6 +4296,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -3479,6 +4319,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -3497,6 +4342,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -3515,6 +4365,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -3533,6 +4388,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -3551,6 +4411,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -3569,6 +4434,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -3587,6 +4457,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -3605,6 +4480,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -3623,6 +4503,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -3641,6 +4526,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -3659,6 +4549,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -3677,6 +4572,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -3695,6 +4595,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -3713,6 +4618,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -3731,6 +4641,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -3749,6 +4664,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -3767,6 +4687,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -3785,6 +4710,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -3803,6 +4733,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -3821,6 +4756,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -3839,6 +4779,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -3857,6 +4802,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -3875,6 +4825,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -3893,6 +4848,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -3911,6 +4871,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -3929,6 +4894,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -3947,6 +4917,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -3965,6 +4940,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -3983,6 +4963,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -4001,6 +4986,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -4019,6 +5009,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -4037,6 +5032,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -4055,6 +5055,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -4073,6 +5078,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -4091,6 +5101,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -4109,6 +5124,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -4127,6 +5147,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -4145,6 +5170,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -4163,6 +5193,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -4181,6 +5216,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -4199,6 +5239,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -4217,6 +5262,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -4235,6 +5285,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -4253,6 +5308,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -4271,6 +5331,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -4289,6 +5354,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -4307,6 +5377,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -4325,6 +5400,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -4343,6 +5423,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -4361,6 +5446,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -4379,6 +5469,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -4397,6 +5492,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -4415,6 +5515,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -4433,6 +5538,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -4451,6 +5561,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -4469,6 +5584,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -4487,6 +5607,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -4505,6 +5630,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -4523,6 +5653,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -4541,6 +5676,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -4559,6 +5699,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -4577,6 +5722,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -4595,6 +5745,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -4613,6 +5768,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -4631,6 +5791,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -4649,6 +5814,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -4667,6 +5837,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -4685,6 +5860,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -4703,6 +5883,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -4721,6 +5906,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -4739,6 +5929,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -4757,6 +5952,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -4775,6 +5975,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -4793,6 +5998,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -4811,6 +6021,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -4829,6 +6044,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -4847,6 +6067,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -4865,6 +6090,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -4883,6 +6113,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -4901,6 +6136,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -4919,6 +6159,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -4937,6 +6182,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -4955,6 +6205,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -4973,6 +6228,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -4991,6 +6251,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -5009,6 +6274,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -5027,6 +6297,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -5045,6 +6320,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -5063,6 +6343,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -5081,6 +6366,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -5099,6 +6389,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -5117,6 +6412,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -5135,6 +6435,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -5153,6 +6458,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -5171,6 +6481,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -5189,6 +6504,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -5207,6 +6527,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -5225,6 +6550,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -5243,6 +6573,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -5261,6 +6596,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -5279,6 +6619,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -5297,6 +6642,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -5315,6 +6665,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -5333,6 +6688,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -5351,6 +6711,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -5369,6 +6734,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -5387,6 +6757,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -5405,6 +6780,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -5423,6 +6803,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -5441,6 +6826,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -5459,6 +6849,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -5477,6 +6872,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -5495,6 +6895,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -5513,6 +6918,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -5531,6 +6941,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -5549,6 +6964,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -5567,6 +6987,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -5585,6 +7010,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -5603,6 +7033,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -5621,6 +7056,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -5639,6 +7079,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -5657,6 +7102,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -5675,6 +7125,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -5693,6 +7148,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -5711,6 +7171,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -5729,6 +7194,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -5747,6 +7217,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -5765,6 +7240,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -5783,6 +7263,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -5801,6 +7286,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -5819,6 +7309,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -5837,6 +7332,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -5855,6 +7355,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -5873,6 +7378,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -5891,6 +7401,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -5909,6 +7424,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -5927,6 +7447,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -5945,6 +7470,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -5963,6 +7493,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -5981,6 +7516,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -5999,6 +7539,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -6017,6 +7562,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -6035,6 +7585,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -6053,6 +7608,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -6071,6 +7631,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -6089,6 +7654,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -6107,6 +7677,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -6125,6 +7700,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -6143,6 +7723,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -6161,6 +7746,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -6179,6 +7769,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -6197,6 +7792,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -6215,6 +7815,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -6233,6 +7838,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -6251,6 +7861,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -6269,6 +7884,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -6287,6 +7907,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -6305,6 +7930,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -6323,6 +7953,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -6341,6 +7976,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -6359,6 +7999,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -6377,6 +8022,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -6395,6 +8045,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -6413,6 +8068,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -6431,6 +8091,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -6449,6 +8114,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -6467,6 +8137,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -6485,6 +8160,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -6503,6 +8183,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -6521,6 +8206,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -6539,6 +8229,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -6557,6 +8252,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -6575,6 +8275,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -6593,6 +8298,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -6611,6 +8321,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -6629,6 +8344,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -6647,6 +8367,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -6665,6 +8390,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -6683,6 +8413,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -6701,6 +8436,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -6719,6 +8459,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -6737,6 +8482,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -6755,6 +8505,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -6773,6 +8528,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -6791,6 +8551,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -6809,6 +8574,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -6827,6 +8597,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -6845,6 +8620,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -6863,6 +8643,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -6881,6 +8666,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -6899,6 +8689,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -6917,6 +8712,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -6935,6 +8735,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -6953,6 +8758,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -6971,6 +8781,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -6989,6 +8804,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -7007,6 +8827,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -7025,6 +8850,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -7043,6 +8873,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -7061,6 +8896,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -7079,6 +8919,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -7097,6 +8942,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -7115,6 +8965,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -7133,6 +8988,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -7151,6 +9011,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -7169,6 +9034,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -7187,6 +9057,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -7205,6 +9080,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -7223,6 +9103,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -7241,6 +9126,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -7259,6 +9149,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -7277,6 +9172,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -7295,6 +9195,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -7313,6 +9218,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -7331,6 +9241,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -7349,6 +9264,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -7367,6 +9287,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -7385,6 +9310,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -7403,6 +9333,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -7421,6 +9356,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -7439,6 +9379,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -7457,6 +9402,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -7475,6 +9425,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -7493,6 +9448,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -7511,6 +9471,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -7529,6 +9494,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -7547,6 +9517,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -7565,6 +9540,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -7583,6 +9563,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -7601,6 +9586,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -7619,6 +9609,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -7637,6 +9632,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -7655,6 +9655,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -7673,6 +9678,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -7691,6 +9701,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
@@ -7709,6 +9724,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -7727,6 +9747,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -7745,6 +9770,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -7763,6 +9793,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -7781,6 +9816,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -7799,6 +9839,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -7817,6 +9862,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -7835,6 +9885,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -7853,6 +9908,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -7871,6 +9931,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -7889,6 +9954,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -7907,6 +9977,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -7925,6 +10000,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -7943,6 +10023,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -7961,6 +10046,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -7979,6 +10069,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
@@ -7997,6 +10092,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
@@ -8015,6 +10115,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
@@ -8033,6 +10138,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
@@ -8051,6 +10161,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
@@ -8069,6 +10184,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
@@ -8087,6 +10207,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
@@ -8105,6 +10230,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
@@ -8123,6 +10253,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
@@ -8141,6 +10276,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
@@ -8159,6 +10299,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
@@ -8177,6 +10322,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
@@ -8195,6 +10345,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
@@ -8213,6 +10368,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
@@ -8231,6 +10391,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
@@ -8249,6 +10414,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
@@ -8267,6 +10437,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
@@ -8285,6 +10460,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
@@ -8303,6 +10483,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
@@ -8321,6 +10506,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
@@ -8339,6 +10529,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
@@ -8357,6 +10552,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
@@ -8375,6 +10575,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
@@ -8393,6 +10598,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
@@ -8411,6 +10621,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
@@ -8429,6 +10644,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
@@ -8447,6 +10667,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
@@ -8465,6 +10690,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
@@ -8483,6 +10713,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
@@ -8501,6 +10736,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
@@ -8519,6 +10759,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
@@ -8537,6 +10782,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
@@ -8555,6 +10805,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
@@ -8573,6 +10828,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
@@ -8591,6 +10851,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
@@ -8609,6 +10874,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
@@ -8627,6 +10897,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
@@ -8645,6 +10920,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
@@ -8663,6 +10943,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
@@ -8681,6 +10966,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
@@ -8699,6 +10989,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
@@ -8717,6 +11012,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
@@ -8735,6 +11035,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
@@ -8753,6 +11058,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
@@ -8771,6 +11081,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
@@ -8789,6 +11104,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
@@ -8807,6 +11127,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
@@ -8825,6 +11150,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
@@ -8843,6 +11173,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
@@ -8861,6 +11196,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
@@ -8879,6 +11219,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
@@ -8897,6 +11242,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
@@ -8915,6 +11265,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
@@ -8933,6 +11288,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
@@ -8951,6 +11311,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
@@ -8969,6 +11334,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
@@ -8987,6 +11357,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
@@ -9005,6 +11380,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
@@ -9023,6 +11403,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
@@ -9041,6 +11426,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
@@ -9059,6 +11449,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
@@ -9077,6 +11472,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
@@ -9095,6 +11495,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
@@ -9113,6 +11518,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
@@ -9131,6 +11541,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
@@ -9149,6 +11564,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
@@ -9167,6 +11587,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
@@ -9185,6 +11610,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
@@ -9203,6 +11633,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
@@ -9221,6 +11656,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
@@ -9239,6 +11679,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
@@ -9257,6 +11702,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
@@ -9275,6 +11725,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
@@ -9293,6 +11748,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
@@ -9311,6 +11771,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
@@ -9329,6 +11794,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
@@ -9347,6 +11817,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
@@ -9365,6 +11840,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
@@ -9383,6 +11863,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -9401,6 +11886,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
@@ -9419,6 +11909,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -9437,6 +11932,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
@@ -9455,6 +11955,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
@@ -9473,6 +11978,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -9491,6 +12001,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -9509,6 +12024,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -9527,6 +12047,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
@@ -9545,6 +12070,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -9563,6 +12093,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
@@ -9581,6 +12116,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -9599,6 +12139,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -9617,6 +12162,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -9635,6 +12185,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -9653,6 +12208,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
@@ -9671,6 +12231,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -9689,6 +12254,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
@@ -9707,6 +12277,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
@@ -9725,6 +12300,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
@@ -9743,6 +12323,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
@@ -9761,6 +12346,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
@@ -9779,6 +12369,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
@@ -9797,6 +12392,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
@@ -9815,6 +12415,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
@@ -9833,6 +12438,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
@@ -9851,6 +12461,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
@@ -9869,6 +12484,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
@@ -9887,6 +12507,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
@@ -9905,6 +12530,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
@@ -9923,6 +12553,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -9941,6 +12576,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
@@ -9959,6 +12599,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
@@ -9977,6 +12622,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
@@ -9995,6 +12645,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
@@ -10013,6 +12668,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
@@ -10031,6 +12691,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
@@ -10049,6 +12714,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
@@ -10067,6 +12737,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
@@ -10085,6 +12760,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
@@ -10103,6 +12783,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
@@ -10121,6 +12806,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
@@ -10139,6 +12829,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
@@ -10157,6 +12852,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
@@ -10175,6 +12875,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
@@ -10193,6 +12898,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
@@ -10211,6 +12921,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
@@ -10229,6 +12944,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
@@ -10247,6 +12967,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
@@ -10265,6 +12990,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
@@ -10283,6 +13013,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
@@ -10301,6 +13036,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
@@ -10319,6 +13059,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
@@ -10337,6 +13082,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
@@ -10355,6 +13105,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
@@ -10373,6 +13128,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
@@ -10391,6 +13151,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
@@ -10409,6 +13174,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
@@ -10427,6 +13197,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
@@ -10441,6 +13216,11 @@
         <v>1</v>
       </c>
       <c r="D556" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
         <is>
           <t>c__Bacilli</t>
         </is>

--- a/outputs-HGR-r202/p__Firmicutes.xlsx
+++ b/outputs-HGR-r202/p__Firmicutes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E525"/>
+  <dimension ref="A1:E537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1959,14 +1959,14 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17288.fa</t>
+          <t>even_MAG-GUT16567.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>222208.8195187404</v>
+        <v>97515.16720366091</v>
       </c>
       <c r="C67" t="n">
-        <v>222208.8195187404</v>
+        <v>97515.16720366091</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1982,14 +1982,14 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17314.fa</t>
+          <t>even_MAG-GUT17288.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>170327.1398967733</v>
+        <v>222208.8195187404</v>
       </c>
       <c r="C68" t="n">
-        <v>170327.1398967733</v>
+        <v>222208.8195187404</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2005,14 +2005,14 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1743.fa</t>
+          <t>even_MAG-GUT17314.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>154854.5306451252</v>
+        <v>170327.1398967733</v>
       </c>
       <c r="C69" t="n">
-        <v>154854.5306451252</v>
+        <v>170327.1398967733</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2028,14 +2028,14 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17776.fa</t>
+          <t>even_MAG-GUT1743.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>172338.9577434065</v>
+        <v>154854.5306451252</v>
       </c>
       <c r="C70" t="n">
-        <v>172338.9577434065</v>
+        <v>154854.5306451252</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2051,14 +2051,14 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17782.fa</t>
+          <t>even_MAG-GUT17776.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>245649.4170969123</v>
+        <v>172338.9577434065</v>
       </c>
       <c r="C71" t="n">
-        <v>245649.4170969123</v>
+        <v>172338.9577434065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2074,14 +2074,14 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1861.fa</t>
+          <t>even_MAG-GUT17782.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>209501.2901584426</v>
+        <v>245649.4170969123</v>
       </c>
       <c r="C72" t="n">
-        <v>209501.2901584426</v>
+        <v>245649.4170969123</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2097,14 +2097,14 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1871.fa</t>
+          <t>even_MAG-GUT1861.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>155075.2469312464</v>
+        <v>209501.2901584426</v>
       </c>
       <c r="C73" t="n">
-        <v>155075.2469312464</v>
+        <v>209501.2901584426</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2120,14 +2120,14 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1875.fa</t>
+          <t>even_MAG-GUT1871.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>180879.1173557869</v>
+        <v>155075.2469312464</v>
       </c>
       <c r="C74" t="n">
-        <v>180879.1173557869</v>
+        <v>155075.2469312464</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2143,14 +2143,14 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1876.fa</t>
+          <t>even_MAG-GUT1875.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>140302.2401494507</v>
+        <v>180879.1173557869</v>
       </c>
       <c r="C75" t="n">
-        <v>140302.2401494507</v>
+        <v>180879.1173557869</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1880.fa</t>
+          <t>even_MAG-GUT1876.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>159392.9679596387</v>
+        <v>140302.2401494507</v>
       </c>
       <c r="C76" t="n">
-        <v>159392.9679596387</v>
+        <v>140302.2401494507</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2189,14 +2189,14 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18819.fa</t>
+          <t>even_MAG-GUT1880.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>173793.604995238</v>
+        <v>159392.9679596387</v>
       </c>
       <c r="C77" t="n">
-        <v>173793.604995238</v>
+        <v>159392.9679596387</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2212,14 +2212,14 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1882.fa</t>
+          <t>even_MAG-GUT18819.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>173751.2313735656</v>
+        <v>173793.604995238</v>
       </c>
       <c r="C78" t="n">
-        <v>173751.2313735656</v>
+        <v>173793.604995238</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2235,14 +2235,14 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1885.fa</t>
+          <t>even_MAG-GUT1882.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>174321.8756097689</v>
+        <v>173751.2313735656</v>
       </c>
       <c r="C79" t="n">
-        <v>174321.8756097689</v>
+        <v>173751.2313735656</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2258,14 +2258,14 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1887.fa</t>
+          <t>even_MAG-GUT1885.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>170889.6163799613</v>
+        <v>174321.8756097689</v>
       </c>
       <c r="C80" t="n">
-        <v>170889.6163799613</v>
+        <v>174321.8756097689</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2281,14 +2281,14 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1888.fa</t>
+          <t>even_MAG-GUT1887.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>157805.2607018141</v>
+        <v>170889.6163799613</v>
       </c>
       <c r="C81" t="n">
-        <v>157805.2607018141</v>
+        <v>170889.6163799613</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2304,14 +2304,14 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1892.fa</t>
+          <t>even_MAG-GUT1888.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>174321.8756097689</v>
+        <v>157805.2607018141</v>
       </c>
       <c r="C82" t="n">
-        <v>174321.8756097689</v>
+        <v>157805.2607018141</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2327,14 +2327,14 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1894.fa</t>
+          <t>even_MAG-GUT1892.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>222689.6310594457</v>
+        <v>174321.8756097689</v>
       </c>
       <c r="C83" t="n">
-        <v>222689.6310594457</v>
+        <v>174321.8756097689</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2350,14 +2350,14 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1895.fa</t>
+          <t>even_MAG-GUT1894.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>153038.9727084836</v>
+        <v>222689.6310594457</v>
       </c>
       <c r="C84" t="n">
-        <v>153038.9727084836</v>
+        <v>222689.6310594457</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2373,14 +2373,14 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1898.fa</t>
+          <t>even_MAG-GUT1895.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>164404.6869518039</v>
+        <v>153038.9727084836</v>
       </c>
       <c r="C85" t="n">
-        <v>164404.6869518039</v>
+        <v>153038.9727084836</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2396,14 +2396,14 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1900.fa</t>
+          <t>even_MAG-GUT1898.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>164095.5069153435</v>
+        <v>164404.6869518039</v>
       </c>
       <c r="C86" t="n">
-        <v>164095.5069153435</v>
+        <v>164404.6869518039</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2419,14 +2419,14 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1904.fa</t>
+          <t>even_MAG-GUT1900.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>142261.4953375568</v>
+        <v>164095.5069153435</v>
       </c>
       <c r="C87" t="n">
-        <v>142261.4953375568</v>
+        <v>164095.5069153435</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2442,14 +2442,14 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1906.fa</t>
+          <t>even_MAG-GUT1904.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>148374.7292893792</v>
+        <v>142261.4953375568</v>
       </c>
       <c r="C88" t="n">
-        <v>148374.7292893792</v>
+        <v>142261.4953375568</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2465,14 +2465,14 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1908.fa</t>
+          <t>even_MAG-GUT1906.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>150959.3216499955</v>
+        <v>148374.7292893792</v>
       </c>
       <c r="C89" t="n">
-        <v>150959.3216499955</v>
+        <v>148374.7292893792</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2488,14 +2488,14 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1911.fa</t>
+          <t>even_MAG-GUT1908.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>174321.8756097689</v>
+        <v>150959.3216499955</v>
       </c>
       <c r="C90" t="n">
-        <v>174321.8756097689</v>
+        <v>150959.3216499955</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2511,14 +2511,14 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1914.fa</t>
+          <t>even_MAG-GUT1911.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>172707.1865756242</v>
+        <v>174321.8756097689</v>
       </c>
       <c r="C91" t="n">
-        <v>172707.1865756242</v>
+        <v>174321.8756097689</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2534,14 +2534,14 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1915.fa</t>
+          <t>even_MAG-GUT1914.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>232666.5509872438</v>
+        <v>172707.1865756242</v>
       </c>
       <c r="C92" t="n">
-        <v>232666.5509872438</v>
+        <v>172707.1865756242</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2557,14 +2557,14 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19428.fa</t>
+          <t>even_MAG-GUT1915.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>192385.5630415092</v>
+        <v>232666.5509872438</v>
       </c>
       <c r="C93" t="n">
-        <v>192385.5630415092</v>
+        <v>232666.5509872438</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2580,14 +2580,14 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1946.fa</t>
+          <t>even_MAG-GUT19428.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>162660.5962634745</v>
+        <v>192385.5630415092</v>
       </c>
       <c r="C94" t="n">
-        <v>162660.5962634745</v>
+        <v>192385.5630415092</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2603,14 +2603,14 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1959.fa</t>
+          <t>even_MAG-GUT1946.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>164863.463594611</v>
+        <v>162660.5962634745</v>
       </c>
       <c r="C95" t="n">
-        <v>164863.463594611</v>
+        <v>162660.5962634745</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2626,14 +2626,14 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19932.fa</t>
+          <t>even_MAG-GUT1959.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>160984.1038076667</v>
+        <v>164863.463594611</v>
       </c>
       <c r="C96" t="n">
-        <v>160984.1038076667</v>
+        <v>164863.463594611</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2649,14 +2649,14 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2025.fa</t>
+          <t>even_MAG-GUT19932.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>107261.7794143812</v>
+        <v>160984.1038076667</v>
       </c>
       <c r="C97" t="n">
-        <v>107261.7794143812</v>
+        <v>160984.1038076667</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2672,14 +2672,14 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2060.fa</t>
+          <t>even_MAG-GUT2025.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>141110.6434614614</v>
+        <v>107261.7794143812</v>
       </c>
       <c r="C98" t="n">
-        <v>141110.6434614614</v>
+        <v>107261.7794143812</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2695,14 +2695,14 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21168.fa</t>
+          <t>even_MAG-GUT2060.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>68366.75156614117</v>
+        <v>141110.6434614614</v>
       </c>
       <c r="C99" t="n">
-        <v>68366.75156614117</v>
+        <v>141110.6434614614</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2718,14 +2718,14 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2139.fa</t>
+          <t>even_MAG-GUT21168.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>106709.6269118924</v>
+        <v>68366.75156614117</v>
       </c>
       <c r="C100" t="n">
-        <v>106709.6269118924</v>
+        <v>68366.75156614117</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2741,14 +2741,14 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21728.fa</t>
+          <t>even_MAG-GUT2139.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>133920.3783122079</v>
+        <v>106709.6269118924</v>
       </c>
       <c r="C101" t="n">
-        <v>133920.3783122079</v>
+        <v>106709.6269118924</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2764,14 +2764,14 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2201.fa</t>
+          <t>even_MAG-GUT21728.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>153112.5834671215</v>
+        <v>133920.3783122079</v>
       </c>
       <c r="C102" t="n">
-        <v>153112.5834671215</v>
+        <v>133920.3783122079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2787,14 +2787,14 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2250.fa</t>
+          <t>even_MAG-GUT2201.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>136355.4775283206</v>
+        <v>153112.5834671215</v>
       </c>
       <c r="C103" t="n">
-        <v>136355.4775283206</v>
+        <v>153112.5834671215</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2810,14 +2810,14 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2256.fa</t>
+          <t>even_MAG-GUT2250.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>245325.3888097158</v>
+        <v>136355.4775283206</v>
       </c>
       <c r="C104" t="n">
-        <v>245325.3888097158</v>
+        <v>136355.4775283206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2833,14 +2833,14 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22606.fa</t>
+          <t>even_MAG-GUT2256.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>230185.2662024515</v>
+        <v>245325.3888097158</v>
       </c>
       <c r="C105" t="n">
-        <v>230185.2662024515</v>
+        <v>245325.3888097158</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2856,14 +2856,14 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2306.fa</t>
+          <t>even_MAG-GUT22606.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>210590.3240548625</v>
+        <v>230185.2662024515</v>
       </c>
       <c r="C106" t="n">
-        <v>210590.3240548625</v>
+        <v>230185.2662024515</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2879,14 +2879,14 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2366.fa</t>
+          <t>even_MAG-GUT2306.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>166461.2752128054</v>
+        <v>210590.3240548625</v>
       </c>
       <c r="C107" t="n">
-        <v>166461.2752128054</v>
+        <v>210590.3240548625</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2902,14 +2902,14 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25429.fa</t>
+          <t>even_MAG-GUT23295.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>65801.39263347848</v>
+        <v>114641.5484356509</v>
       </c>
       <c r="C108" t="n">
-        <v>65801.39263347848</v>
+        <v>114641.5484356509</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2925,14 +2925,14 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26238.fa</t>
+          <t>even_MAG-GUT2366.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>152584.2876529336</v>
+        <v>166461.2752128054</v>
       </c>
       <c r="C109" t="n">
-        <v>152584.2876529336</v>
+        <v>166461.2752128054</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2948,14 +2948,14 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26973.fa</t>
+          <t>even_MAG-GUT25429.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>177562.0618576045</v>
+        <v>65801.39263347848</v>
       </c>
       <c r="C110" t="n">
-        <v>177562.0618576045</v>
+        <v>65801.39263347848</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2971,14 +2971,14 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27420.fa</t>
+          <t>even_MAG-GUT26238.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>267658.5757555389</v>
+        <v>152584.2876529336</v>
       </c>
       <c r="C111" t="n">
-        <v>267658.5757555389</v>
+        <v>152584.2876529336</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2994,14 +2994,14 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27437.fa</t>
+          <t>even_MAG-GUT26973.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>201328.5157724046</v>
+        <v>177562.0618576045</v>
       </c>
       <c r="C112" t="n">
-        <v>201328.5157724046</v>
+        <v>177562.0618576045</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3017,14 +3017,14 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27453.fa</t>
+          <t>even_MAG-GUT27420.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>194274.6168374646</v>
+        <v>267658.5757555389</v>
       </c>
       <c r="C113" t="n">
-        <v>194274.6168374646</v>
+        <v>267658.5757555389</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3040,14 +3040,14 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28570.fa</t>
+          <t>even_MAG-GUT27437.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>169809.8310872123</v>
+        <v>201328.5157724046</v>
       </c>
       <c r="C114" t="n">
-        <v>169809.8310872123</v>
+        <v>201328.5157724046</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3063,14 +3063,14 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30539.fa</t>
+          <t>even_MAG-GUT27453.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>78083.42920226492</v>
+        <v>194274.6168374646</v>
       </c>
       <c r="C115" t="n">
-        <v>78083.42920226492</v>
+        <v>194274.6168374646</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3086,14 +3086,14 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30639.fa</t>
+          <t>even_MAG-GUT28570.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>109109.8749886027</v>
+        <v>169809.8310872123</v>
       </c>
       <c r="C116" t="n">
-        <v>109109.8749886027</v>
+        <v>169809.8310872123</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3109,14 +3109,14 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31303.fa</t>
+          <t>even_MAG-GUT30539.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>210698.7330795291</v>
+        <v>78083.42920226492</v>
       </c>
       <c r="C117" t="n">
-        <v>210698.7330795291</v>
+        <v>78083.42920226492</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3132,14 +3132,14 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31519.fa</t>
+          <t>even_MAG-GUT30639.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>134493.0428865519</v>
+        <v>109109.8749886027</v>
       </c>
       <c r="C118" t="n">
-        <v>134493.0428865519</v>
+        <v>109109.8749886027</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3155,14 +3155,14 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32242.fa</t>
+          <t>even_MAG-GUT31303.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>205647.923920575</v>
+        <v>210698.7330795291</v>
       </c>
       <c r="C119" t="n">
-        <v>205647.923920575</v>
+        <v>210698.7330795291</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3178,14 +3178,14 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3231.fa</t>
+          <t>even_MAG-GUT31519.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>147085.3899488721</v>
+        <v>134493.0428865519</v>
       </c>
       <c r="C120" t="n">
-        <v>147085.3899488721</v>
+        <v>134493.0428865519</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3201,14 +3201,14 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3233.fa</t>
+          <t>even_MAG-GUT32242.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>165922.9700186713</v>
+        <v>205647.923920575</v>
       </c>
       <c r="C121" t="n">
-        <v>165922.9700186713</v>
+        <v>205647.923920575</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3224,14 +3224,14 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32544.fa</t>
+          <t>even_MAG-GUT3231.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>68228.24484880216</v>
+        <v>147085.3899488721</v>
       </c>
       <c r="C122" t="n">
-        <v>68228.24484880216</v>
+        <v>147085.3899488721</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3247,14 +3247,14 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32654.fa</t>
+          <t>even_MAG-GUT3233.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>139186.8436039272</v>
+        <v>165922.9700186713</v>
       </c>
       <c r="C123" t="n">
-        <v>139186.8436039272</v>
+        <v>165922.9700186713</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3270,14 +3270,14 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3301.fa</t>
+          <t>even_MAG-GUT32544.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>136586.3764951006</v>
+        <v>68228.24484880216</v>
       </c>
       <c r="C124" t="n">
-        <v>136586.3764951006</v>
+        <v>68228.24484880216</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3293,14 +3293,14 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3323.fa</t>
+          <t>even_MAG-GUT32654.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>116448.3963341536</v>
+        <v>139186.8436039272</v>
       </c>
       <c r="C125" t="n">
-        <v>116448.3963341536</v>
+        <v>139186.8436039272</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3316,14 +3316,14 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3427.fa</t>
+          <t>even_MAG-GUT3301.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>211868.7061224722</v>
+        <v>136586.3764951006</v>
       </c>
       <c r="C126" t="n">
-        <v>211868.7061224722</v>
+        <v>136586.3764951006</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3339,14 +3339,14 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3435.fa</t>
+          <t>even_MAG-GUT3323.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>200284.7743752396</v>
+        <v>116448.3963341536</v>
       </c>
       <c r="C127" t="n">
-        <v>200284.7743752396</v>
+        <v>116448.3963341536</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3362,14 +3362,14 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3474.fa</t>
+          <t>even_MAG-GUT33836.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>231405.0155900238</v>
+        <v>88924.50608526234</v>
       </c>
       <c r="C128" t="n">
-        <v>231405.0155900238</v>
+        <v>88924.50608526234</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3385,14 +3385,14 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3477.fa</t>
+          <t>even_MAG-GUT34245.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>163510.913646758</v>
+        <v>120232.2547852043</v>
       </c>
       <c r="C129" t="n">
-        <v>163510.913646758</v>
+        <v>120232.2547852043</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3408,14 +3408,14 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3479.fa</t>
+          <t>even_MAG-GUT3427.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>168922.8364274034</v>
+        <v>211868.7061224722</v>
       </c>
       <c r="C130" t="n">
-        <v>168922.8364274034</v>
+        <v>211868.7061224722</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3431,14 +3431,14 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3480.fa</t>
+          <t>even_MAG-GUT3435.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>253737.2440540276</v>
+        <v>200284.7743752396</v>
       </c>
       <c r="C131" t="n">
-        <v>253737.2440540276</v>
+        <v>200284.7743752396</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3454,14 +3454,14 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3484.fa</t>
+          <t>even_MAG-GUT34540.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>170748.9398999626</v>
+        <v>107574.0809890793</v>
       </c>
       <c r="C132" t="n">
-        <v>170748.9398999626</v>
+        <v>107574.0809890793</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3477,14 +3477,14 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3493.fa</t>
+          <t>even_MAG-GUT3474.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>128839.4600750209</v>
+        <v>231405.0155900238</v>
       </c>
       <c r="C133" t="n">
-        <v>128839.4600750209</v>
+        <v>231405.0155900238</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3500,14 +3500,14 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3499.fa</t>
+          <t>even_MAG-GUT3477.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>214404.6602662855</v>
+        <v>163510.913646758</v>
       </c>
       <c r="C134" t="n">
-        <v>214404.6602662855</v>
+        <v>163510.913646758</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3523,14 +3523,14 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3508.fa</t>
+          <t>even_MAG-GUT3479.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>190515.4837759854</v>
+        <v>168922.8364274034</v>
       </c>
       <c r="C135" t="n">
-        <v>190515.4837759854</v>
+        <v>168922.8364274034</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3546,14 +3546,14 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3548.fa</t>
+          <t>even_MAG-GUT3480.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>94403.5460883952</v>
+        <v>253737.2440540276</v>
       </c>
       <c r="C136" t="n">
-        <v>94403.5460883952</v>
+        <v>253737.2440540276</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3569,14 +3569,14 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3553.fa</t>
+          <t>even_MAG-GUT3484.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>136833.895482576</v>
+        <v>170748.9398999626</v>
       </c>
       <c r="C137" t="n">
-        <v>136833.895482576</v>
+        <v>170748.9398999626</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3592,14 +3592,14 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3561.fa</t>
+          <t>even_MAG-GUT3493.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>151190.3829049429</v>
+        <v>128839.4600750209</v>
       </c>
       <c r="C138" t="n">
-        <v>151190.3829049429</v>
+        <v>128839.4600750209</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3615,14 +3615,14 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36103.fa</t>
+          <t>even_MAG-GUT34945.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>172845.7614106477</v>
+        <v>103964.6863686456</v>
       </c>
       <c r="C139" t="n">
-        <v>172845.7614106477</v>
+        <v>103964.6863686456</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3638,14 +3638,14 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36616.fa</t>
+          <t>even_MAG-GUT3499.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>70592.84630904747</v>
+        <v>214404.6602662855</v>
       </c>
       <c r="C140" t="n">
-        <v>70592.84630904747</v>
+        <v>214404.6602662855</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3661,14 +3661,14 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36756.fa</t>
+          <t>even_MAG-GUT3508.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>148517.8019534153</v>
+        <v>190515.4837759854</v>
       </c>
       <c r="C141" t="n">
-        <v>148517.8019534153</v>
+        <v>190515.4837759854</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3684,14 +3684,14 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40025.fa</t>
+          <t>even_MAG-GUT3548.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>174442.9240272503</v>
+        <v>94403.5460883952</v>
       </c>
       <c r="C142" t="n">
-        <v>174442.9240272503</v>
+        <v>94403.5460883952</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3707,14 +3707,14 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40033.fa</t>
+          <t>even_MAG-GUT3553.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>193218.195566467</v>
+        <v>136833.895482576</v>
       </c>
       <c r="C143" t="n">
-        <v>193218.195566467</v>
+        <v>136833.895482576</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3730,14 +3730,14 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41.fa</t>
+          <t>even_MAG-GUT3561.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>174759.0998549382</v>
+        <v>151190.3829049429</v>
       </c>
       <c r="C144" t="n">
-        <v>174759.0998549382</v>
+        <v>151190.3829049429</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3753,14 +3753,14 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41852.fa</t>
+          <t>even_MAG-GUT36103.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>173962.202018643</v>
+        <v>172845.7614106477</v>
       </c>
       <c r="C145" t="n">
-        <v>173962.202018643</v>
+        <v>172845.7614106477</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3776,14 +3776,14 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42578.fa</t>
+          <t>even_MAG-GUT36616.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>42504.15696311244</v>
+        <v>70592.84630904747</v>
       </c>
       <c r="C146" t="n">
-        <v>42504.15696311244</v>
+        <v>70592.84630904747</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3799,14 +3799,14 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42613.fa</t>
+          <t>even_MAG-GUT36756.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>154808.4608695169</v>
+        <v>148517.8019534153</v>
       </c>
       <c r="C147" t="n">
-        <v>154808.4608695169</v>
+        <v>148517.8019534153</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3822,14 +3822,14 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42662.fa</t>
+          <t>even_MAG-GUT40025.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>192826.7187184631</v>
+        <v>174442.9240272503</v>
       </c>
       <c r="C148" t="n">
-        <v>192826.7187184631</v>
+        <v>174442.9240272503</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3845,14 +3845,14 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42689.fa</t>
+          <t>even_MAG-GUT40033.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>137466.9795114845</v>
+        <v>193218.195566467</v>
       </c>
       <c r="C149" t="n">
-        <v>137466.9795114845</v>
+        <v>193218.195566467</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3868,14 +3868,14 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43258.fa</t>
+          <t>even_MAG-GUT41.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>204529.990457912</v>
+        <v>174759.0998549382</v>
       </c>
       <c r="C150" t="n">
-        <v>204529.990457912</v>
+        <v>174759.0998549382</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3891,14 +3891,14 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43402.fa</t>
+          <t>even_MAG-GUT41852.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>232219.8488568552</v>
+        <v>173962.202018643</v>
       </c>
       <c r="C151" t="n">
-        <v>232219.8488568552</v>
+        <v>173962.202018643</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3914,14 +3914,14 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43425.fa</t>
+          <t>even_MAG-GUT42578.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>167471.8561352377</v>
+        <v>42504.15696311244</v>
       </c>
       <c r="C152" t="n">
-        <v>167471.8561352377</v>
+        <v>42504.15696311244</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3937,14 +3937,14 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43440.fa</t>
+          <t>even_MAG-GUT42613.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>166944.8187729386</v>
+        <v>154808.4608695169</v>
       </c>
       <c r="C153" t="n">
-        <v>166944.8187729386</v>
+        <v>154808.4608695169</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3960,14 +3960,14 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43446.fa</t>
+          <t>even_MAG-GUT42662.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>76013.65400476687</v>
+        <v>192826.7187184631</v>
       </c>
       <c r="C154" t="n">
-        <v>76013.65400476687</v>
+        <v>192826.7187184631</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3983,14 +3983,14 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43457.fa</t>
+          <t>even_MAG-GUT42689.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>140131.4200687056</v>
+        <v>137466.9795114845</v>
       </c>
       <c r="C155" t="n">
-        <v>140131.4200687056</v>
+        <v>137466.9795114845</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4006,14 +4006,14 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43462.fa</t>
+          <t>even_MAG-GUT43258.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>159206.5701026506</v>
+        <v>204529.990457912</v>
       </c>
       <c r="C156" t="n">
-        <v>159206.5701026506</v>
+        <v>204529.990457912</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4029,14 +4029,14 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43463.fa</t>
+          <t>even_MAG-GUT43402.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>131833.7390821308</v>
+        <v>232219.8488568552</v>
       </c>
       <c r="C157" t="n">
-        <v>131833.7390821308</v>
+        <v>232219.8488568552</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4052,14 +4052,14 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43483.fa</t>
+          <t>even_MAG-GUT43425.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>144877.6348467598</v>
+        <v>167471.8561352377</v>
       </c>
       <c r="C158" t="n">
-        <v>144877.6348467598</v>
+        <v>167471.8561352377</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4075,14 +4075,14 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43491.fa</t>
+          <t>even_MAG-GUT43440.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>222611.5524176402</v>
+        <v>166944.8187729386</v>
       </c>
       <c r="C159" t="n">
-        <v>222611.5524176402</v>
+        <v>166944.8187729386</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4098,14 +4098,14 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43515.fa</t>
+          <t>even_MAG-GUT43446.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>230939.8195531258</v>
+        <v>76013.65400476687</v>
       </c>
       <c r="C160" t="n">
-        <v>230939.8195531258</v>
+        <v>76013.65400476687</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4121,14 +4121,14 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43573.fa</t>
+          <t>even_MAG-GUT43457.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>158574.4938944653</v>
+        <v>140131.4200687056</v>
       </c>
       <c r="C161" t="n">
-        <v>158574.4938944653</v>
+        <v>140131.4200687056</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4144,14 +4144,14 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43577.fa</t>
+          <t>even_MAG-GUT43462.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>177094.034031552</v>
+        <v>159206.5701026506</v>
       </c>
       <c r="C162" t="n">
-        <v>177094.034031552</v>
+        <v>159206.5701026506</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4167,14 +4167,14 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43620.fa</t>
+          <t>even_MAG-GUT43463.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>158931.9848605638</v>
+        <v>131833.7390821308</v>
       </c>
       <c r="C163" t="n">
-        <v>158931.9848605638</v>
+        <v>131833.7390821308</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4190,14 +4190,14 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43751.fa</t>
+          <t>even_MAG-GUT43483.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>149898.7118911843</v>
+        <v>144877.6348467598</v>
       </c>
       <c r="C164" t="n">
-        <v>149898.7118911843</v>
+        <v>144877.6348467598</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4213,14 +4213,14 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43773.fa</t>
+          <t>even_MAG-GUT43491.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>175930.9296357292</v>
+        <v>222611.5524176402</v>
       </c>
       <c r="C165" t="n">
-        <v>175930.9296357292</v>
+        <v>222611.5524176402</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4236,14 +4236,14 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43936.fa</t>
+          <t>even_MAG-GUT43515.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>237710.9462785317</v>
+        <v>230939.8195531258</v>
       </c>
       <c r="C166" t="n">
-        <v>237710.9462785317</v>
+        <v>230939.8195531258</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4259,14 +4259,14 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43943.fa</t>
+          <t>even_MAG-GUT43573.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>136030.5957058672</v>
+        <v>158574.4938944653</v>
       </c>
       <c r="C167" t="n">
-        <v>136030.5957058672</v>
+        <v>158574.4938944653</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4282,14 +4282,14 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44002.fa</t>
+          <t>even_MAG-GUT43577.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>201090.4307616722</v>
+        <v>177094.034031552</v>
       </c>
       <c r="C168" t="n">
-        <v>201090.4307616722</v>
+        <v>177094.034031552</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4305,14 +4305,14 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44104.fa</t>
+          <t>even_MAG-GUT43620.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>175290.7775985211</v>
+        <v>158931.9848605638</v>
       </c>
       <c r="C169" t="n">
-        <v>175290.7775985211</v>
+        <v>158931.9848605638</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4328,14 +4328,14 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44177.fa</t>
+          <t>even_MAG-GUT43751.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>177391.3324581816</v>
+        <v>149898.7118911843</v>
       </c>
       <c r="C170" t="n">
-        <v>177391.3324581816</v>
+        <v>149898.7118911843</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4351,14 +4351,14 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44179.fa</t>
+          <t>even_MAG-GUT43773.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>219406.6800811805</v>
+        <v>175930.9296357292</v>
       </c>
       <c r="C171" t="n">
-        <v>219406.6800811805</v>
+        <v>175930.9296357292</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4374,14 +4374,14 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44190.fa</t>
+          <t>even_MAG-GUT43936.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>75567.5980876133</v>
+        <v>237710.9462785317</v>
       </c>
       <c r="C172" t="n">
-        <v>75567.5980876133</v>
+        <v>237710.9462785317</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4397,14 +4397,14 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44412.fa</t>
+          <t>even_MAG-GUT43943.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>151385.1301756284</v>
+        <v>136030.5957058672</v>
       </c>
       <c r="C173" t="n">
-        <v>151385.1301756284</v>
+        <v>136030.5957058672</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4420,14 +4420,14 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44539.fa</t>
+          <t>even_MAG-GUT44002.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>181690.5918443036</v>
+        <v>201090.4307616722</v>
       </c>
       <c r="C174" t="n">
-        <v>181690.5918443036</v>
+        <v>201090.4307616722</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4443,14 +4443,14 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44544.fa</t>
+          <t>even_MAG-GUT44104.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>140269.384356403</v>
+        <v>175290.7775985211</v>
       </c>
       <c r="C175" t="n">
-        <v>140269.384356403</v>
+        <v>175290.7775985211</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4466,14 +4466,14 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44617.fa</t>
+          <t>even_MAG-GUT44177.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>153901.7096381538</v>
+        <v>177391.3324581816</v>
       </c>
       <c r="C176" t="n">
-        <v>153901.7096381538</v>
+        <v>177391.3324581816</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4489,14 +4489,14 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44666.fa</t>
+          <t>even_MAG-GUT44179.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>201090.4307616722</v>
+        <v>219406.6800811805</v>
       </c>
       <c r="C177" t="n">
-        <v>201090.4307616722</v>
+        <v>219406.6800811805</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4512,14 +4512,14 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45166.fa</t>
+          <t>even_MAG-GUT44190.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>244118.1251478377</v>
+        <v>75567.5980876133</v>
       </c>
       <c r="C178" t="n">
-        <v>244118.1251478377</v>
+        <v>75567.5980876133</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4535,14 +4535,14 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45212.fa</t>
+          <t>even_MAG-GUT44412.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>157480.7268066804</v>
+        <v>151385.1301756284</v>
       </c>
       <c r="C179" t="n">
-        <v>157480.7268066804</v>
+        <v>151385.1301756284</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4558,14 +4558,14 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45687.fa</t>
+          <t>even_MAG-GUT44539.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>193691.9767082452</v>
+        <v>181690.5918443036</v>
       </c>
       <c r="C180" t="n">
-        <v>193691.9767082452</v>
+        <v>181690.5918443036</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4581,14 +4581,14 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45705.fa</t>
+          <t>even_MAG-GUT44544.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>148378.506346682</v>
+        <v>140269.384356403</v>
       </c>
       <c r="C181" t="n">
-        <v>148378.506346682</v>
+        <v>140269.384356403</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4604,14 +4604,14 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45791.fa</t>
+          <t>even_MAG-GUT44617.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>127832.4194831124</v>
+        <v>153901.7096381538</v>
       </c>
       <c r="C182" t="n">
-        <v>127832.4194831124</v>
+        <v>153901.7096381538</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4627,14 +4627,14 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45882.fa</t>
+          <t>even_MAG-GUT44666.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>164850.735548828</v>
+        <v>201090.4307616722</v>
       </c>
       <c r="C183" t="n">
-        <v>164850.735548828</v>
+        <v>201090.4307616722</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4650,14 +4650,14 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45923.fa</t>
+          <t>even_MAG-GUT45166.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>202662.5562161019</v>
+        <v>244118.1251478377</v>
       </c>
       <c r="C184" t="n">
-        <v>202662.5562161019</v>
+        <v>244118.1251478377</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4673,14 +4673,14 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4616.fa</t>
+          <t>even_MAG-GUT45212.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>71523.02381533061</v>
+        <v>157480.7268066804</v>
       </c>
       <c r="C185" t="n">
-        <v>71523.02381533061</v>
+        <v>157480.7268066804</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4696,14 +4696,14 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46437.fa</t>
+          <t>even_MAG-GUT45687.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>145842.8954318966</v>
+        <v>193691.9767082452</v>
       </c>
       <c r="C186" t="n">
-        <v>145842.8954318966</v>
+        <v>193691.9767082452</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4719,14 +4719,14 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46441.fa</t>
+          <t>even_MAG-GUT45705.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>172945.5411518736</v>
+        <v>148378.506346682</v>
       </c>
       <c r="C187" t="n">
-        <v>172945.5411518736</v>
+        <v>148378.506346682</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4742,14 +4742,14 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46658.fa</t>
+          <t>even_MAG-GUT45791.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>142807.7353991267</v>
+        <v>127832.4194831124</v>
       </c>
       <c r="C188" t="n">
-        <v>142807.7353991267</v>
+        <v>127832.4194831124</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4765,14 +4765,14 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46868.fa</t>
+          <t>even_MAG-GUT45882.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>154975.8553100089</v>
+        <v>164850.735548828</v>
       </c>
       <c r="C189" t="n">
-        <v>154975.8553100089</v>
+        <v>164850.735548828</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4788,14 +4788,14 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46962.fa</t>
+          <t>even_MAG-GUT45923.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>152258.618820465</v>
+        <v>202662.5562161019</v>
       </c>
       <c r="C190" t="n">
-        <v>152258.618820465</v>
+        <v>202662.5562161019</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4811,14 +4811,14 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47063.fa</t>
+          <t>even_MAG-GUT46037.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>160606.8385876746</v>
+        <v>95532.86918584742</v>
       </c>
       <c r="C191" t="n">
-        <v>160606.8385876746</v>
+        <v>95532.86918584742</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4834,14 +4834,14 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47179.fa</t>
+          <t>even_MAG-GUT4616.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>195087.489664173</v>
+        <v>71523.02381533061</v>
       </c>
       <c r="C192" t="n">
-        <v>195087.489664173</v>
+        <v>71523.02381533061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4857,14 +4857,14 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47531.fa</t>
+          <t>even_MAG-GUT46437.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>125083.2521653616</v>
+        <v>145842.8954318966</v>
       </c>
       <c r="C193" t="n">
-        <v>125083.2521653616</v>
+        <v>145842.8954318966</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -4880,14 +4880,14 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47559.fa</t>
+          <t>even_MAG-GUT46441.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>156758.1615969127</v>
+        <v>172945.5411518736</v>
       </c>
       <c r="C194" t="n">
-        <v>156758.1615969127</v>
+        <v>172945.5411518736</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4903,14 +4903,14 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47637.fa</t>
+          <t>even_MAG-GUT46658.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>231173.978265469</v>
+        <v>142807.7353991267</v>
       </c>
       <c r="C195" t="n">
-        <v>231173.978265469</v>
+        <v>142807.7353991267</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4926,14 +4926,14 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47723.fa</t>
+          <t>even_MAG-GUT46868.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>198070.8552500934</v>
+        <v>154975.8553100089</v>
       </c>
       <c r="C196" t="n">
-        <v>198070.8552500934</v>
+        <v>154975.8553100089</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4949,14 +4949,14 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47782.fa</t>
+          <t>even_MAG-GUT46962.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>215731.9017614914</v>
+        <v>152258.618820465</v>
       </c>
       <c r="C197" t="n">
-        <v>215731.9017614914</v>
+        <v>152258.618820465</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4972,14 +4972,14 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48445.fa</t>
+          <t>even_MAG-GUT47063.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>159240.2336161655</v>
+        <v>160606.8385876746</v>
       </c>
       <c r="C198" t="n">
-        <v>159240.2336161655</v>
+        <v>160606.8385876746</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4995,14 +4995,14 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48488.fa</t>
+          <t>even_MAG-GUT47179.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>186208.1665783421</v>
+        <v>195087.489664173</v>
       </c>
       <c r="C199" t="n">
-        <v>186208.1665783421</v>
+        <v>195087.489664173</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5018,14 +5018,14 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48498.fa</t>
+          <t>even_MAG-GUT47531.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>185065.1654597702</v>
+        <v>125083.2521653616</v>
       </c>
       <c r="C200" t="n">
-        <v>185065.1654597702</v>
+        <v>125083.2521653616</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5041,14 +5041,14 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48566.fa</t>
+          <t>even_MAG-GUT47559.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>167604.6475182887</v>
+        <v>156758.1615969127</v>
       </c>
       <c r="C201" t="n">
-        <v>167604.6475182887</v>
+        <v>156758.1615969127</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5064,14 +5064,14 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48571.fa</t>
+          <t>even_MAG-GUT47637.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>185418.5766642512</v>
+        <v>231173.978265469</v>
       </c>
       <c r="C202" t="n">
-        <v>185418.5766642512</v>
+        <v>231173.978265469</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5087,14 +5087,14 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48585.fa</t>
+          <t>even_MAG-GUT47723.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>144558.546309009</v>
+        <v>198070.8552500934</v>
       </c>
       <c r="C203" t="n">
-        <v>144558.546309009</v>
+        <v>198070.8552500934</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5110,14 +5110,14 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48612.fa</t>
+          <t>even_MAG-GUT47782.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>148058.424805152</v>
+        <v>215731.9017614914</v>
       </c>
       <c r="C204" t="n">
-        <v>148058.424805152</v>
+        <v>215731.9017614914</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5133,14 +5133,14 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48629.fa</t>
+          <t>even_MAG-GUT48445.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>211804.718209822</v>
+        <v>159240.2336161655</v>
       </c>
       <c r="C205" t="n">
-        <v>211804.718209822</v>
+        <v>159240.2336161655</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5156,14 +5156,14 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48673.fa</t>
+          <t>even_MAG-GUT48488.fa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>120730.1697107408</v>
+        <v>186208.1665783421</v>
       </c>
       <c r="C206" t="n">
-        <v>120730.1697107408</v>
+        <v>186208.1665783421</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5179,14 +5179,14 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48682.fa</t>
+          <t>even_MAG-GUT48498.fa</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>164944.5800990706</v>
+        <v>185065.1654597702</v>
       </c>
       <c r="C207" t="n">
-        <v>164944.5800990706</v>
+        <v>185065.1654597702</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5202,14 +5202,14 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48686.fa</t>
+          <t>even_MAG-GUT48566.fa</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>163748.8744457367</v>
+        <v>167604.6475182887</v>
       </c>
       <c r="C208" t="n">
-        <v>163748.8744457367</v>
+        <v>167604.6475182887</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5225,14 +5225,14 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48704.fa</t>
+          <t>even_MAG-GUT48571.fa</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>150517.906841345</v>
+        <v>185418.5766642512</v>
       </c>
       <c r="C209" t="n">
-        <v>150517.906841345</v>
+        <v>185418.5766642512</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5248,14 +5248,14 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48723.fa</t>
+          <t>even_MAG-GUT48585.fa</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>124769.6186632925</v>
+        <v>144558.546309009</v>
       </c>
       <c r="C210" t="n">
-        <v>124769.6186632925</v>
+        <v>144558.546309009</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5271,14 +5271,14 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48735.fa</t>
+          <t>even_MAG-GUT48612.fa</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>183395.9149945301</v>
+        <v>148058.424805152</v>
       </c>
       <c r="C211" t="n">
-        <v>183395.9149945301</v>
+        <v>148058.424805152</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5294,14 +5294,14 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48749.fa</t>
+          <t>even_MAG-GUT48629.fa</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>146022.7959886132</v>
+        <v>211804.718209822</v>
       </c>
       <c r="C212" t="n">
-        <v>146022.7959886132</v>
+        <v>211804.718209822</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5317,14 +5317,14 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48754.fa</t>
+          <t>even_MAG-GUT48673.fa</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>167960.163793057</v>
+        <v>120730.1697107408</v>
       </c>
       <c r="C213" t="n">
-        <v>167960.163793057</v>
+        <v>120730.1697107408</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5340,14 +5340,14 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48761.fa</t>
+          <t>even_MAG-GUT48682.fa</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>169012.2561274817</v>
+        <v>164944.5800990706</v>
       </c>
       <c r="C214" t="n">
-        <v>169012.2561274817</v>
+        <v>164944.5800990706</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5363,14 +5363,14 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48773.fa</t>
+          <t>even_MAG-GUT48686.fa</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>89682.11383429501</v>
+        <v>163748.8744457367</v>
       </c>
       <c r="C215" t="n">
-        <v>89682.11383429501</v>
+        <v>163748.8744457367</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5386,14 +5386,14 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48798.fa</t>
+          <t>even_MAG-GUT48704.fa</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>166222.7035790184</v>
+        <v>150517.906841345</v>
       </c>
       <c r="C216" t="n">
-        <v>166222.7035790184</v>
+        <v>150517.906841345</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5409,14 +5409,14 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48804.fa</t>
+          <t>even_MAG-GUT48723.fa</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>133088.1172682183</v>
+        <v>124769.6186632925</v>
       </c>
       <c r="C217" t="n">
-        <v>133088.1172682183</v>
+        <v>124769.6186632925</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5432,14 +5432,14 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48829.fa</t>
+          <t>even_MAG-GUT48735.fa</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>174224.5223479356</v>
+        <v>183395.9149945301</v>
       </c>
       <c r="C218" t="n">
-        <v>174224.5223479356</v>
+        <v>183395.9149945301</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5455,14 +5455,14 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48834.fa</t>
+          <t>even_MAG-GUT48749.fa</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>144157.9563294844</v>
+        <v>146022.7959886132</v>
       </c>
       <c r="C219" t="n">
-        <v>144157.9563294844</v>
+        <v>146022.7959886132</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5478,14 +5478,14 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48887.fa</t>
+          <t>even_MAG-GUT48754.fa</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>176812.1154016077</v>
+        <v>167960.163793057</v>
       </c>
       <c r="C220" t="n">
-        <v>176812.1154016077</v>
+        <v>167960.163793057</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5501,14 +5501,14 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48894.fa</t>
+          <t>even_MAG-GUT48761.fa</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>149542.5425168788</v>
+        <v>169012.2561274817</v>
       </c>
       <c r="C221" t="n">
-        <v>149542.5425168788</v>
+        <v>169012.2561274817</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5524,14 +5524,14 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48940.fa</t>
+          <t>even_MAG-GUT48773.fa</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>175698.2676079106</v>
+        <v>89682.11383429501</v>
       </c>
       <c r="C222" t="n">
-        <v>175698.2676079106</v>
+        <v>89682.11383429501</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5547,14 +5547,14 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48968.fa</t>
+          <t>even_MAG-GUT48798.fa</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>133898.4465855779</v>
+        <v>166222.7035790184</v>
       </c>
       <c r="C223" t="n">
-        <v>133898.4465855779</v>
+        <v>166222.7035790184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5570,14 +5570,14 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48971.fa</t>
+          <t>even_MAG-GUT48804.fa</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>174253.3082682083</v>
+        <v>133088.1172682183</v>
       </c>
       <c r="C224" t="n">
-        <v>174253.3082682083</v>
+        <v>133088.1172682183</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5593,14 +5593,14 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48976.fa</t>
+          <t>even_MAG-GUT48829.fa</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>111301.1247699206</v>
+        <v>174224.5223479356</v>
       </c>
       <c r="C225" t="n">
-        <v>111301.1247699206</v>
+        <v>174224.5223479356</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5616,14 +5616,14 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49002.fa</t>
+          <t>even_MAG-GUT48834.fa</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>222445.3357152615</v>
+        <v>144157.9563294844</v>
       </c>
       <c r="C226" t="n">
-        <v>222445.3357152615</v>
+        <v>144157.9563294844</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5639,14 +5639,14 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49004.fa</t>
+          <t>even_MAG-GUT48887.fa</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>143764.6283349436</v>
+        <v>176812.1154016077</v>
       </c>
       <c r="C227" t="n">
-        <v>143764.6283349436</v>
+        <v>176812.1154016077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -5662,14 +5662,14 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49005.fa</t>
+          <t>even_MAG-GUT48894.fa</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>184930.2306206205</v>
+        <v>149542.5425168788</v>
       </c>
       <c r="C228" t="n">
-        <v>184930.2306206205</v>
+        <v>149542.5425168788</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5685,14 +5685,14 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49010.fa</t>
+          <t>even_MAG-GUT48940.fa</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>169904.5130211569</v>
+        <v>175698.2676079106</v>
       </c>
       <c r="C229" t="n">
-        <v>169904.5130211569</v>
+        <v>175698.2676079106</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5708,14 +5708,14 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49015.fa</t>
+          <t>even_MAG-GUT48968.fa</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>147705.4005121106</v>
+        <v>133898.4465855779</v>
       </c>
       <c r="C230" t="n">
-        <v>147705.4005121106</v>
+        <v>133898.4465855779</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -5731,14 +5731,14 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49023.fa</t>
+          <t>even_MAG-GUT48971.fa</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>118406.6528885534</v>
+        <v>174253.3082682083</v>
       </c>
       <c r="C231" t="n">
-        <v>118406.6528885534</v>
+        <v>174253.3082682083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -5754,14 +5754,14 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49051.fa</t>
+          <t>even_MAG-GUT48976.fa</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>203664.7699560301</v>
+        <v>111301.1247699206</v>
       </c>
       <c r="C232" t="n">
-        <v>203664.7699560301</v>
+        <v>111301.1247699206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -5777,14 +5777,14 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49063.fa</t>
+          <t>even_MAG-GUT49002.fa</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>151616.4919752221</v>
+        <v>222445.3357152615</v>
       </c>
       <c r="C233" t="n">
-        <v>151616.4919752221</v>
+        <v>222445.3357152615</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -5800,14 +5800,14 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49069.fa</t>
+          <t>even_MAG-GUT49004.fa</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>137194.1795820612</v>
+        <v>143764.6283349436</v>
       </c>
       <c r="C234" t="n">
-        <v>137194.1795820612</v>
+        <v>143764.6283349436</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -5823,14 +5823,14 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49070.fa</t>
+          <t>even_MAG-GUT49005.fa</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>161700.6893729151</v>
+        <v>184930.2306206205</v>
       </c>
       <c r="C235" t="n">
-        <v>161700.6893729151</v>
+        <v>184930.2306206205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5846,14 +5846,14 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49071.fa</t>
+          <t>even_MAG-GUT49010.fa</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>165803.816340579</v>
+        <v>169904.5130211569</v>
       </c>
       <c r="C236" t="n">
-        <v>165803.816340579</v>
+        <v>169904.5130211569</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5869,14 +5869,14 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49075.fa</t>
+          <t>even_MAG-GUT49015.fa</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>178993.2848619216</v>
+        <v>147705.4005121106</v>
       </c>
       <c r="C237" t="n">
-        <v>178993.2848619216</v>
+        <v>147705.4005121106</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -5892,14 +5892,14 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49083.fa</t>
+          <t>even_MAG-GUT49023.fa</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>132438.6455996775</v>
+        <v>118406.6528885534</v>
       </c>
       <c r="C238" t="n">
-        <v>132438.6455996775</v>
+        <v>118406.6528885534</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -5915,14 +5915,14 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49101.fa</t>
+          <t>even_MAG-GUT49051.fa</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>152702.5189504084</v>
+        <v>203664.7699560301</v>
       </c>
       <c r="C239" t="n">
-        <v>152702.5189504084</v>
+        <v>203664.7699560301</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -5938,14 +5938,14 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49118.fa</t>
+          <t>even_MAG-GUT49063.fa</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>105178.6429288217</v>
+        <v>151616.4919752221</v>
       </c>
       <c r="C240" t="n">
-        <v>105178.6429288217</v>
+        <v>151616.4919752221</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -5961,14 +5961,14 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49170.fa</t>
+          <t>even_MAG-GUT49069.fa</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>126912.0002450703</v>
+        <v>137194.1795820612</v>
       </c>
       <c r="C241" t="n">
-        <v>126912.0002450703</v>
+        <v>137194.1795820612</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5984,14 +5984,14 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49176.fa</t>
+          <t>even_MAG-GUT49070.fa</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>107204.9000524232</v>
+        <v>161700.6893729151</v>
       </c>
       <c r="C242" t="n">
-        <v>107204.9000524232</v>
+        <v>161700.6893729151</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6007,14 +6007,14 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49179.fa</t>
+          <t>even_MAG-GUT49071.fa</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>176428.2242375706</v>
+        <v>165803.816340579</v>
       </c>
       <c r="C243" t="n">
-        <v>176428.2242375706</v>
+        <v>165803.816340579</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6030,14 +6030,14 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49226.fa</t>
+          <t>even_MAG-GUT49075.fa</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>107754.8892228241</v>
+        <v>178993.2848619216</v>
       </c>
       <c r="C244" t="n">
-        <v>107754.8892228241</v>
+        <v>178993.2848619216</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6053,14 +6053,14 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49236.fa</t>
+          <t>even_MAG-GUT49083.fa</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>165737.0977720912</v>
+        <v>132438.6455996775</v>
       </c>
       <c r="C245" t="n">
-        <v>165737.0977720912</v>
+        <v>132438.6455996775</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6076,14 +6076,14 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49289.fa</t>
+          <t>even_MAG-GUT49101.fa</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>155757.0093995929</v>
+        <v>152702.5189504084</v>
       </c>
       <c r="C246" t="n">
-        <v>155757.0093995929</v>
+        <v>152702.5189504084</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6099,14 +6099,14 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49297.fa</t>
+          <t>even_MAG-GUT49118.fa</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>147353.0671753725</v>
+        <v>105178.6429288217</v>
       </c>
       <c r="C247" t="n">
-        <v>147353.0671753725</v>
+        <v>105178.6429288217</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6122,14 +6122,14 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49302.fa</t>
+          <t>even_MAG-GUT49170.fa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>155602.6526369326</v>
+        <v>126912.0002450703</v>
       </c>
       <c r="C248" t="n">
-        <v>155602.6526369326</v>
+        <v>126912.0002450703</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6145,14 +6145,14 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49315.fa</t>
+          <t>even_MAG-GUT49176.fa</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>157387.1281096321</v>
+        <v>107204.9000524232</v>
       </c>
       <c r="C249" t="n">
-        <v>157387.1281096321</v>
+        <v>107204.9000524232</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6168,14 +6168,14 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49326.fa</t>
+          <t>even_MAG-GUT49179.fa</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>188751.672363026</v>
+        <v>176428.2242375706</v>
       </c>
       <c r="C250" t="n">
-        <v>188751.672363026</v>
+        <v>176428.2242375706</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6191,14 +6191,14 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49329.fa</t>
+          <t>even_MAG-GUT49226.fa</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>157387.1281096321</v>
+        <v>107754.8892228241</v>
       </c>
       <c r="C251" t="n">
-        <v>157387.1281096321</v>
+        <v>107754.8892228241</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6214,14 +6214,14 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49356.fa</t>
+          <t>even_MAG-GUT49236.fa</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>149214.1303706037</v>
+        <v>165737.0977720912</v>
       </c>
       <c r="C252" t="n">
-        <v>149214.1303706037</v>
+        <v>165737.0977720912</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -6237,14 +6237,14 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49359.fa</t>
+          <t>even_MAG-GUT49289.fa</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>141182.4966471663</v>
+        <v>155757.0093995929</v>
       </c>
       <c r="C253" t="n">
-        <v>141182.4966471663</v>
+        <v>155757.0093995929</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -6260,14 +6260,14 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49379.fa</t>
+          <t>even_MAG-GUT49297.fa</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>125330.4351197638</v>
+        <v>147353.0671753725</v>
       </c>
       <c r="C254" t="n">
-        <v>125330.4351197638</v>
+        <v>147353.0671753725</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -6283,14 +6283,14 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49384.fa</t>
+          <t>even_MAG-GUT49302.fa</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>249636.1808943079</v>
+        <v>155602.6526369326</v>
       </c>
       <c r="C255" t="n">
-        <v>249636.1808943079</v>
+        <v>155602.6526369326</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -6306,14 +6306,14 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49393.fa</t>
+          <t>even_MAG-GUT49315.fa</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>126964.8000390373</v>
+        <v>157387.1281096321</v>
       </c>
       <c r="C256" t="n">
-        <v>126964.8000390373</v>
+        <v>157387.1281096321</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -6329,14 +6329,14 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49403.fa</t>
+          <t>even_MAG-GUT49326.fa</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>152918.8917265786</v>
+        <v>188751.672363026</v>
       </c>
       <c r="C257" t="n">
-        <v>152918.8917265786</v>
+        <v>188751.672363026</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -6352,14 +6352,14 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49409.fa</t>
+          <t>even_MAG-GUT49329.fa</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>134880.1943761457</v>
+        <v>157387.1281096321</v>
       </c>
       <c r="C258" t="n">
-        <v>134880.1943761457</v>
+        <v>157387.1281096321</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -6375,14 +6375,14 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4942.fa</t>
+          <t>even_MAG-GUT49356.fa</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>85533.66316614072</v>
+        <v>149214.1303706037</v>
       </c>
       <c r="C259" t="n">
-        <v>85533.66316614072</v>
+        <v>149214.1303706037</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -6398,14 +6398,14 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49456.fa</t>
+          <t>even_MAG-GUT49359.fa</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>159200.519149567</v>
+        <v>141182.4966471663</v>
       </c>
       <c r="C260" t="n">
-        <v>159200.519149567</v>
+        <v>141182.4966471663</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -6421,14 +6421,14 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49458.fa</t>
+          <t>even_MAG-GUT49379.fa</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>152527.6789903461</v>
+        <v>125330.4351197638</v>
       </c>
       <c r="C261" t="n">
-        <v>152527.6789903461</v>
+        <v>125330.4351197638</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -6444,14 +6444,14 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49469.fa</t>
+          <t>even_MAG-GUT49384.fa</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>173161.7895845054</v>
+        <v>249636.1808943079</v>
       </c>
       <c r="C262" t="n">
-        <v>173161.7895845054</v>
+        <v>249636.1808943079</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -6467,14 +6467,14 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49487.fa</t>
+          <t>even_MAG-GUT49393.fa</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>130017.4695091515</v>
+        <v>126964.8000390373</v>
       </c>
       <c r="C263" t="n">
-        <v>130017.4695091515</v>
+        <v>126964.8000390373</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -6490,14 +6490,14 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49499.fa</t>
+          <t>even_MAG-GUT49403.fa</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>112594.4700895873</v>
+        <v>152918.8917265786</v>
       </c>
       <c r="C264" t="n">
-        <v>112594.4700895873</v>
+        <v>152918.8917265786</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -6513,14 +6513,14 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49512.fa</t>
+          <t>even_MAG-GUT49409.fa</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>126154.9442228858</v>
+        <v>134880.1943761457</v>
       </c>
       <c r="C265" t="n">
-        <v>126154.9442228858</v>
+        <v>134880.1943761457</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -6536,14 +6536,14 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49526.fa</t>
+          <t>even_MAG-GUT4942.fa</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>87214.56428409622</v>
+        <v>85533.66316614072</v>
       </c>
       <c r="C266" t="n">
-        <v>87214.56428409622</v>
+        <v>85533.66316614072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -6559,14 +6559,14 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49529.fa</t>
+          <t>even_MAG-GUT49456.fa</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>152671.8802402761</v>
+        <v>159200.519149567</v>
       </c>
       <c r="C267" t="n">
-        <v>152671.8802402761</v>
+        <v>159200.519149567</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -6582,14 +6582,14 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49535.fa</t>
+          <t>even_MAG-GUT49458.fa</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>141309.1964311464</v>
+        <v>152527.6789903461</v>
       </c>
       <c r="C268" t="n">
-        <v>141309.1964311464</v>
+        <v>152527.6789903461</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -6605,14 +6605,14 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49539.fa</t>
+          <t>even_MAG-GUT49469.fa</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>157387.1281096321</v>
+        <v>173161.7895845054</v>
       </c>
       <c r="C269" t="n">
-        <v>157387.1281096321</v>
+        <v>173161.7895845054</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -6628,14 +6628,14 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49541.fa</t>
+          <t>even_MAG-GUT49487.fa</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>162742.6821383439</v>
+        <v>130017.4695091515</v>
       </c>
       <c r="C270" t="n">
-        <v>162742.6821383439</v>
+        <v>130017.4695091515</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -6651,14 +6651,14 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49567.fa</t>
+          <t>even_MAG-GUT49499.fa</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>193110.1706711867</v>
+        <v>112594.4700895873</v>
       </c>
       <c r="C271" t="n">
-        <v>193110.1706711867</v>
+        <v>112594.4700895873</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -6674,14 +6674,14 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49574.fa</t>
+          <t>even_MAG-GUT49512.fa</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>123069.0781582541</v>
+        <v>126154.9442228858</v>
       </c>
       <c r="C272" t="n">
-        <v>123069.0781582541</v>
+        <v>126154.9442228858</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -6697,14 +6697,14 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49593.fa</t>
+          <t>even_MAG-GUT49526.fa</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>155037.9420849266</v>
+        <v>87214.56428409622</v>
       </c>
       <c r="C273" t="n">
-        <v>155037.9420849266</v>
+        <v>87214.56428409622</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -6720,14 +6720,14 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49599.fa</t>
+          <t>even_MAG-GUT49529.fa</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>101669.2249108685</v>
+        <v>152671.8802402761</v>
       </c>
       <c r="C274" t="n">
-        <v>101669.2249108685</v>
+        <v>152671.8802402761</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -6743,14 +6743,14 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49609.fa</t>
+          <t>even_MAG-GUT49535.fa</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>180627.8865806896</v>
+        <v>141309.1964311464</v>
       </c>
       <c r="C275" t="n">
-        <v>180627.8865806896</v>
+        <v>141309.1964311464</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -6766,14 +6766,14 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49616.fa</t>
+          <t>even_MAG-GUT49539.fa</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>137611.9811558705</v>
+        <v>157387.1281096321</v>
       </c>
       <c r="C276" t="n">
-        <v>137611.9811558705</v>
+        <v>157387.1281096321</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -6789,14 +6789,14 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51.fa</t>
+          <t>even_MAG-GUT49541.fa</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>201228.8729392929</v>
+        <v>162742.6821383439</v>
       </c>
       <c r="C277" t="n">
-        <v>201228.8729392929</v>
+        <v>162742.6821383439</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -6812,14 +6812,14 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56334.fa</t>
+          <t>even_MAG-GUT49567.fa</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>83369.86053303596</v>
+        <v>193110.1706711867</v>
       </c>
       <c r="C278" t="n">
-        <v>83369.86053303596</v>
+        <v>193110.1706711867</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -6835,14 +6835,14 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56425.fa</t>
+          <t>even_MAG-GUT49574.fa</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>226669.1948001515</v>
+        <v>123069.0781582541</v>
       </c>
       <c r="C279" t="n">
-        <v>226669.1948001515</v>
+        <v>123069.0781582541</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -6858,14 +6858,14 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56457.fa</t>
+          <t>even_MAG-GUT49593.fa</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>56510.42577304185</v>
+        <v>155037.9420849266</v>
       </c>
       <c r="C280" t="n">
-        <v>56510.42577304185</v>
+        <v>155037.9420849266</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6881,14 +6881,14 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57264.fa</t>
+          <t>even_MAG-GUT49599.fa</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>151358.2356890571</v>
+        <v>101669.2249108685</v>
       </c>
       <c r="C281" t="n">
-        <v>151358.2356890571</v>
+        <v>101669.2249108685</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -6904,14 +6904,14 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57442.fa</t>
+          <t>even_MAG-GUT49609.fa</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>137284.1326657333</v>
+        <v>180627.8865806896</v>
       </c>
       <c r="C282" t="n">
-        <v>137284.1326657333</v>
+        <v>180627.8865806896</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -6927,14 +6927,14 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57797.fa</t>
+          <t>even_MAG-GUT49616.fa</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>126567.9263276969</v>
+        <v>137611.9811558705</v>
       </c>
       <c r="C283" t="n">
-        <v>126567.9263276969</v>
+        <v>137611.9811558705</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -6950,14 +6950,14 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58014.fa</t>
+          <t>even_MAG-GUT51.fa</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>228960.5389343671</v>
+        <v>201228.8729392929</v>
       </c>
       <c r="C284" t="n">
-        <v>228960.5389343671</v>
+        <v>201228.8729392929</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -6973,14 +6973,14 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58695.fa</t>
+          <t>even_MAG-GUT56334.fa</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>82498.07297273698</v>
+        <v>83369.86053303596</v>
       </c>
       <c r="C285" t="n">
-        <v>82498.07297273698</v>
+        <v>83369.86053303596</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -6996,14 +6996,14 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5880.fa</t>
+          <t>even_MAG-GUT56425.fa</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>122495.4592023497</v>
+        <v>226669.1948001515</v>
       </c>
       <c r="C286" t="n">
-        <v>122495.4592023497</v>
+        <v>226669.1948001515</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7019,14 +7019,14 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59278.fa</t>
+          <t>even_MAG-GUT56457.fa</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>178495.9980313474</v>
+        <v>56510.42577304185</v>
       </c>
       <c r="C287" t="n">
-        <v>178495.9980313474</v>
+        <v>56510.42577304185</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7042,14 +7042,14 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6.fa</t>
+          <t>even_MAG-GUT57264.fa</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>218167.1402738662</v>
+        <v>151358.2356890571</v>
       </c>
       <c r="C288" t="n">
-        <v>218167.1402738662</v>
+        <v>151358.2356890571</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7065,14 +7065,14 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60365.fa</t>
+          <t>even_MAG-GUT57442.fa</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>117486.8508958576</v>
+        <v>137284.1326657333</v>
       </c>
       <c r="C289" t="n">
-        <v>117486.8508958576</v>
+        <v>137284.1326657333</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -7088,14 +7088,14 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61176.fa</t>
+          <t>even_MAG-GUT57797.fa</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>139588.2767759497</v>
+        <v>126567.9263276969</v>
       </c>
       <c r="C290" t="n">
-        <v>139588.2767759497</v>
+        <v>126567.9263276969</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7111,14 +7111,14 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61880.fa</t>
+          <t>even_MAG-GUT58014.fa</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>125409.5416859352</v>
+        <v>228960.5389343671</v>
       </c>
       <c r="C291" t="n">
-        <v>125409.5416859352</v>
+        <v>228960.5389343671</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -7134,14 +7134,14 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6222.fa</t>
+          <t>even_MAG-GUT58695.fa</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>143625.778904097</v>
+        <v>82498.07297273698</v>
       </c>
       <c r="C292" t="n">
-        <v>143625.778904097</v>
+        <v>82498.07297273698</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -7157,14 +7157,14 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6224.fa</t>
+          <t>even_MAG-GUT5880.fa</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>263396.0810154955</v>
+        <v>122495.4592023497</v>
       </c>
       <c r="C293" t="n">
-        <v>263396.0810154955</v>
+        <v>122495.4592023497</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -7180,14 +7180,14 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6229.fa</t>
+          <t>even_MAG-GUT59278.fa</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>171107.6312647187</v>
+        <v>178495.9980313474</v>
       </c>
       <c r="C294" t="n">
-        <v>171107.6312647187</v>
+        <v>178495.9980313474</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -7203,14 +7203,14 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6233.fa</t>
+          <t>even_MAG-GUT59590.fa</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>146850.6916087737</v>
+        <v>173128.22034391</v>
       </c>
       <c r="C295" t="n">
-        <v>146850.6916087737</v>
+        <v>173128.22034391</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -7226,14 +7226,14 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6238.fa</t>
+          <t>even_MAG-GUT6.fa</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>158405.8812057827</v>
+        <v>218167.1402738662</v>
       </c>
       <c r="C296" t="n">
-        <v>158405.8812057827</v>
+        <v>218167.1402738662</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -7249,14 +7249,14 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6241.fa</t>
+          <t>even_MAG-GUT60365.fa</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>157193.1734321467</v>
+        <v>117486.8508958576</v>
       </c>
       <c r="C297" t="n">
-        <v>157193.1734321467</v>
+        <v>117486.8508958576</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -7272,14 +7272,14 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6274.fa</t>
+          <t>even_MAG-GUT61176.fa</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>171107.6312647187</v>
+        <v>139588.2767759497</v>
       </c>
       <c r="C298" t="n">
-        <v>171107.6312647187</v>
+        <v>139588.2767759497</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -7295,14 +7295,14 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6291.fa</t>
+          <t>even_MAG-GUT61880.fa</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>175153.666398126</v>
+        <v>125409.5416859352</v>
       </c>
       <c r="C299" t="n">
-        <v>175153.666398126</v>
+        <v>125409.5416859352</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -7318,14 +7318,14 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62924.fa</t>
+          <t>even_MAG-GUT6222.fa</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>199140.6067582935</v>
+        <v>143625.778904097</v>
       </c>
       <c r="C300" t="n">
-        <v>199140.6067582935</v>
+        <v>143625.778904097</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -7341,14 +7341,14 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62939.fa</t>
+          <t>even_MAG-GUT6224.fa</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>217334.3504960773</v>
+        <v>263396.0810154955</v>
       </c>
       <c r="C301" t="n">
-        <v>217334.3504960773</v>
+        <v>263396.0810154955</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -7364,14 +7364,14 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63100.fa</t>
+          <t>even_MAG-GUT6229.fa</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>216219.3666666059</v>
+        <v>171107.6312647187</v>
       </c>
       <c r="C302" t="n">
-        <v>216219.3666666059</v>
+        <v>171107.6312647187</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -7387,14 +7387,14 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63356.fa</t>
+          <t>even_MAG-GUT6233.fa</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>206254.2900402298</v>
+        <v>146850.6916087737</v>
       </c>
       <c r="C303" t="n">
-        <v>206254.2900402298</v>
+        <v>146850.6916087737</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -7410,14 +7410,14 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63462.fa</t>
+          <t>even_MAG-GUT6238.fa</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>213800.178706145</v>
+        <v>158405.8812057827</v>
       </c>
       <c r="C304" t="n">
-        <v>213800.178706145</v>
+        <v>158405.8812057827</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -7433,14 +7433,14 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63569.fa</t>
+          <t>even_MAG-GUT6241.fa</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>244465.561207796</v>
+        <v>157193.1734321467</v>
       </c>
       <c r="C305" t="n">
-        <v>244465.561207796</v>
+        <v>157193.1734321467</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -7456,14 +7456,14 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65576.fa</t>
+          <t>even_MAG-GUT6274.fa</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>174442.9240272503</v>
+        <v>171107.6312647187</v>
       </c>
       <c r="C306" t="n">
-        <v>174442.9240272503</v>
+        <v>171107.6312647187</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -7479,14 +7479,14 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65588.fa</t>
+          <t>even_MAG-GUT6291.fa</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>193218.195566467</v>
+        <v>175153.666398126</v>
       </c>
       <c r="C307" t="n">
-        <v>193218.195566467</v>
+        <v>175153.666398126</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -7502,14 +7502,14 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65671.fa</t>
+          <t>even_MAG-GUT62924.fa</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>35027.39071662526</v>
+        <v>199140.6067582935</v>
       </c>
       <c r="C308" t="n">
-        <v>35027.39071662526</v>
+        <v>199140.6067582935</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -7525,14 +7525,14 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66098.fa</t>
+          <t>even_MAG-GUT62939.fa</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>174395.5767321562</v>
+        <v>217334.3504960773</v>
       </c>
       <c r="C309" t="n">
-        <v>174395.5767321562</v>
+        <v>217334.3504960773</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -7548,14 +7548,14 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66111.fa</t>
+          <t>even_MAG-GUT63100.fa</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>167263.4975855768</v>
+        <v>216219.3666666059</v>
       </c>
       <c r="C310" t="n">
-        <v>167263.4975855768</v>
+        <v>216219.3666666059</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -7571,14 +7571,14 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66152.fa</t>
+          <t>even_MAG-GUT63356.fa</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>55793.60865992044</v>
+        <v>206254.2900402298</v>
       </c>
       <c r="C311" t="n">
-        <v>55793.60865992044</v>
+        <v>206254.2900402298</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -7594,14 +7594,14 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66161.fa</t>
+          <t>even_MAG-GUT63462.fa</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>40906.7741427141</v>
+        <v>213800.178706145</v>
       </c>
       <c r="C312" t="n">
-        <v>40906.7741427141</v>
+        <v>213800.178706145</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -7617,14 +7617,14 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66322.fa</t>
+          <t>even_MAG-GUT63569.fa</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>196375.4889690335</v>
+        <v>244465.561207796</v>
       </c>
       <c r="C313" t="n">
-        <v>196375.4889690335</v>
+        <v>244465.561207796</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -7640,14 +7640,14 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66330.fa</t>
+          <t>even_MAG-GUT65341.fa</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>176161.5553580724</v>
+        <v>80837.47273710654</v>
       </c>
       <c r="C314" t="n">
-        <v>176161.5553580724</v>
+        <v>80837.47273710654</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -7663,14 +7663,14 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66408.fa</t>
+          <t>even_MAG-GUT65576.fa</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>141159.5252150074</v>
+        <v>174442.9240272503</v>
       </c>
       <c r="C315" t="n">
-        <v>141159.5252150074</v>
+        <v>174442.9240272503</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -7686,14 +7686,14 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67625.fa</t>
+          <t>even_MAG-GUT65588.fa</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>186800.6314586861</v>
+        <v>193218.195566467</v>
       </c>
       <c r="C316" t="n">
-        <v>186800.6314586861</v>
+        <v>193218.195566467</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -7709,14 +7709,14 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67985.fa</t>
+          <t>even_MAG-GUT65671.fa</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>185725.1619296409</v>
+        <v>35027.39071662526</v>
       </c>
       <c r="C317" t="n">
-        <v>185725.1619296409</v>
+        <v>35027.39071662526</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -7732,14 +7732,14 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68043.fa</t>
+          <t>even_MAG-GUT66098.fa</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>129082.4555391107</v>
+        <v>174395.5767321562</v>
       </c>
       <c r="C318" t="n">
-        <v>129082.4555391107</v>
+        <v>174395.5767321562</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -7755,14 +7755,14 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68111.fa</t>
+          <t>even_MAG-GUT66111.fa</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>137934.146497124</v>
+        <v>167263.4975855768</v>
       </c>
       <c r="C319" t="n">
-        <v>137934.146497124</v>
+        <v>167263.4975855768</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -7778,14 +7778,14 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68629.fa</t>
+          <t>even_MAG-GUT66152.fa</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>104230.7824377714</v>
+        <v>55793.60865992044</v>
       </c>
       <c r="C320" t="n">
-        <v>104230.7824377714</v>
+        <v>55793.60865992044</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -7801,14 +7801,14 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68640.fa</t>
+          <t>even_MAG-GUT66161.fa</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>207019.1044343257</v>
+        <v>40906.7741427141</v>
       </c>
       <c r="C321" t="n">
-        <v>207019.1044343257</v>
+        <v>40906.7741427141</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -7824,14 +7824,14 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69384.fa</t>
+          <t>even_MAG-GUT66322.fa</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>103009.818776924</v>
+        <v>196375.4889690335</v>
       </c>
       <c r="C322" t="n">
-        <v>103009.818776924</v>
+        <v>196375.4889690335</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -7847,14 +7847,14 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69501.fa</t>
+          <t>even_MAG-GUT66330.fa</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>144789.8599387197</v>
+        <v>176161.5553580724</v>
       </c>
       <c r="C323" t="n">
-        <v>144789.8599387197</v>
+        <v>176161.5553580724</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -7870,14 +7870,14 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70165.fa</t>
+          <t>even_MAG-GUT66408.fa</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>147553.7921375176</v>
+        <v>141159.5252150074</v>
       </c>
       <c r="C324" t="n">
-        <v>147553.7921375176</v>
+        <v>141159.5252150074</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -7893,14 +7893,14 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70414.fa</t>
+          <t>even_MAG-GUT67625.fa</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>150012.1006075516</v>
+        <v>186800.6314586861</v>
       </c>
       <c r="C325" t="n">
-        <v>150012.1006075516</v>
+        <v>186800.6314586861</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -7916,14 +7916,14 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70460.fa</t>
+          <t>even_MAG-GUT67985.fa</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>70478.89361293399</v>
+        <v>185725.1619296409</v>
       </c>
       <c r="C326" t="n">
-        <v>70478.89361293399</v>
+        <v>185725.1619296409</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -7939,14 +7939,14 @@
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7062.fa</t>
+          <t>even_MAG-GUT68043.fa</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>147822.8769177381</v>
+        <v>129082.4555391107</v>
       </c>
       <c r="C327" t="n">
-        <v>147822.8769177381</v>
+        <v>129082.4555391107</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -7962,14 +7962,14 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70620.fa</t>
+          <t>even_MAG-GUT68111.fa</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>164430.4372233383</v>
+        <v>137934.146497124</v>
       </c>
       <c r="C328" t="n">
-        <v>164430.4372233383</v>
+        <v>137934.146497124</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -7985,14 +7985,14 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7064.fa</t>
+          <t>even_MAG-GUT68629.fa</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>158582.8852535964</v>
+        <v>104230.7824377714</v>
       </c>
       <c r="C329" t="n">
-        <v>158582.8852535964</v>
+        <v>104230.7824377714</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -8008,14 +8008,14 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70664.fa</t>
+          <t>even_MAG-GUT68640.fa</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>214529.6513090464</v>
+        <v>207019.1044343257</v>
       </c>
       <c r="C330" t="n">
-        <v>214529.6513090464</v>
+        <v>207019.1044343257</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -8031,14 +8031,14 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7086.fa</t>
+          <t>even_MAG-GUT69384.fa</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>193518.7408224689</v>
+        <v>103009.818776924</v>
       </c>
       <c r="C331" t="n">
-        <v>193518.7408224689</v>
+        <v>103009.818776924</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -8054,14 +8054,14 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7090.fa</t>
+          <t>even_MAG-GUT69501.fa</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>180346.3495319123</v>
+        <v>144789.8599387197</v>
       </c>
       <c r="C332" t="n">
-        <v>180346.3495319123</v>
+        <v>144789.8599387197</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -8077,14 +8077,14 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7102.fa</t>
+          <t>even_MAG-GUT70165.fa</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>148266.4211737834</v>
+        <v>147553.7921375176</v>
       </c>
       <c r="C333" t="n">
-        <v>148266.4211737834</v>
+        <v>147553.7921375176</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -8100,14 +8100,14 @@
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71084.fa</t>
+          <t>even_MAG-GUT70414.fa</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>153640.8298729332</v>
+        <v>150012.1006075516</v>
       </c>
       <c r="C334" t="n">
-        <v>153640.8298729332</v>
+        <v>150012.1006075516</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -8123,14 +8123,14 @@
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7118.fa</t>
+          <t>even_MAG-GUT70460.fa</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>141854.0328034411</v>
+        <v>70478.89361293399</v>
       </c>
       <c r="C335" t="n">
-        <v>141854.0328034411</v>
+        <v>70478.89361293399</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -8146,14 +8146,14 @@
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7121.fa</t>
+          <t>even_MAG-GUT7062.fa</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>149865.9418840008</v>
+        <v>147822.8769177381</v>
       </c>
       <c r="C336" t="n">
-        <v>149865.9418840008</v>
+        <v>147822.8769177381</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -8169,14 +8169,14 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7125.fa</t>
+          <t>even_MAG-GUT70620.fa</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>150026.4271653514</v>
+        <v>164430.4372233383</v>
       </c>
       <c r="C337" t="n">
-        <v>150026.4271653514</v>
+        <v>164430.4372233383</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -8192,14 +8192,14 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71347.fa</t>
+          <t>even_MAG-GUT7064.fa</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>138488.9182811696</v>
+        <v>158582.8852535964</v>
       </c>
       <c r="C338" t="n">
-        <v>138488.9182811696</v>
+        <v>158582.8852535964</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -8215,14 +8215,14 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7175.fa</t>
+          <t>even_MAG-GUT70664.fa</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>174534.9143069257</v>
+        <v>214529.6513090464</v>
       </c>
       <c r="C339" t="n">
-        <v>174534.9143069257</v>
+        <v>214529.6513090464</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -8238,14 +8238,14 @@
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71751.fa</t>
+          <t>even_MAG-GUT7086.fa</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>225984.4596917647</v>
+        <v>193518.7408224689</v>
       </c>
       <c r="C340" t="n">
-        <v>225984.4596917647</v>
+        <v>193518.7408224689</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -8261,14 +8261,14 @@
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7213.fa</t>
+          <t>even_MAG-GUT7090.fa</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>171209.6151101428</v>
+        <v>180346.3495319123</v>
       </c>
       <c r="C341" t="n">
-        <v>171209.6151101428</v>
+        <v>180346.3495319123</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -8284,14 +8284,14 @@
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7214.fa</t>
+          <t>even_MAG-GUT7102.fa</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>168627.9513856706</v>
+        <v>148266.4211737834</v>
       </c>
       <c r="C342" t="n">
-        <v>168627.9513856706</v>
+        <v>148266.4211737834</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -8307,14 +8307,14 @@
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7216.fa</t>
+          <t>even_MAG-GUT71084.fa</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>132172.203117259</v>
+        <v>153640.8298729332</v>
       </c>
       <c r="C343" t="n">
-        <v>132172.203117259</v>
+        <v>153640.8298729332</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -8330,14 +8330,14 @@
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7222.fa</t>
+          <t>even_MAG-GUT7118.fa</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>166624.0205482904</v>
+        <v>141854.0328034411</v>
       </c>
       <c r="C344" t="n">
-        <v>166624.0205482904</v>
+        <v>141854.0328034411</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -8353,14 +8353,14 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7253.fa</t>
+          <t>even_MAG-GUT7121.fa</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>137630.2976366073</v>
+        <v>149865.9418840008</v>
       </c>
       <c r="C345" t="n">
-        <v>137630.2976366073</v>
+        <v>149865.9418840008</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -8376,14 +8376,14 @@
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7278.fa</t>
+          <t>even_MAG-GUT7125.fa</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>160754.6443440437</v>
+        <v>150026.4271653514</v>
       </c>
       <c r="C346" t="n">
-        <v>160754.6443440437</v>
+        <v>150026.4271653514</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -8399,14 +8399,14 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7285.fa</t>
+          <t>even_MAG-GUT71347.fa</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>253321.6692019716</v>
+        <v>138488.9182811696</v>
       </c>
       <c r="C347" t="n">
-        <v>253321.6692019716</v>
+        <v>138488.9182811696</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -8422,14 +8422,14 @@
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7291.fa</t>
+          <t>even_MAG-GUT7175.fa</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>167605.4148814096</v>
+        <v>174534.9143069257</v>
       </c>
       <c r="C348" t="n">
-        <v>167605.4148814096</v>
+        <v>174534.9143069257</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -8445,14 +8445,14 @@
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73847.fa</t>
+          <t>even_MAG-GUT71751.fa</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>239713.4210333015</v>
+        <v>225984.4596917647</v>
       </c>
       <c r="C349" t="n">
-        <v>239713.4210333015</v>
+        <v>225984.4596917647</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -8468,14 +8468,14 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74183.fa</t>
+          <t>even_MAG-GUT7213.fa</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>246615.3867755685</v>
+        <v>171209.6151101428</v>
       </c>
       <c r="C350" t="n">
-        <v>246615.3867755685</v>
+        <v>171209.6151101428</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -8491,14 +8491,14 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74675.fa</t>
+          <t>even_MAG-GUT7214.fa</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>147331.473184728</v>
+        <v>168627.9513856706</v>
       </c>
       <c r="C351" t="n">
-        <v>147331.473184728</v>
+        <v>168627.9513856706</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -8514,14 +8514,14 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76426.fa</t>
+          <t>even_MAG-GUT7216.fa</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>211051.9591620181</v>
+        <v>132172.203117259</v>
       </c>
       <c r="C352" t="n">
-        <v>211051.9591620181</v>
+        <v>132172.203117259</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -8537,14 +8537,14 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76486.fa</t>
+          <t>even_MAG-GUT7222.fa</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>249194.9144170911</v>
+        <v>166624.0205482904</v>
       </c>
       <c r="C353" t="n">
-        <v>249194.9144170911</v>
+        <v>166624.0205482904</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -8560,14 +8560,14 @@
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76530.fa</t>
+          <t>even_MAG-GUT7253.fa</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>254700.1746267863</v>
+        <v>137630.2976366073</v>
       </c>
       <c r="C354" t="n">
-        <v>254700.1746267863</v>
+        <v>137630.2976366073</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -8583,14 +8583,14 @@
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77471.fa</t>
+          <t>even_MAG-GUT7278.fa</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>162527.0635015448</v>
+        <v>160754.6443440437</v>
       </c>
       <c r="C355" t="n">
-        <v>162527.0635015448</v>
+        <v>160754.6443440437</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -8606,14 +8606,14 @@
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7751.fa</t>
+          <t>even_MAG-GUT7285.fa</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>56071.39151582525</v>
+        <v>253321.6692019716</v>
       </c>
       <c r="C356" t="n">
-        <v>56071.39151582525</v>
+        <v>253321.6692019716</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -8629,14 +8629,14 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77576.fa</t>
+          <t>even_MAG-GUT7291.fa</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>265594.8579347576</v>
+        <v>167605.4148814096</v>
       </c>
       <c r="C357" t="n">
-        <v>265594.8579347576</v>
+        <v>167605.4148814096</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -8652,14 +8652,14 @@
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83501.fa</t>
+          <t>even_MAG-GUT73847.fa</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>93519.2377841562</v>
+        <v>239713.4210333015</v>
       </c>
       <c r="C358" t="n">
-        <v>93519.2377841562</v>
+        <v>239713.4210333015</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -8675,14 +8675,14 @@
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83503.fa</t>
+          <t>even_MAG-GUT74183.fa</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>114305.0641565351</v>
+        <v>246615.3867755685</v>
       </c>
       <c r="C359" t="n">
-        <v>114305.0641565351</v>
+        <v>246615.3867755685</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -8698,14 +8698,14 @@
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83507.fa</t>
+          <t>even_MAG-GUT74675.fa</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>146030.3352219252</v>
+        <v>147331.473184728</v>
       </c>
       <c r="C360" t="n">
-        <v>146030.3352219252</v>
+        <v>147331.473184728</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -8721,14 +8721,14 @@
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86747.fa</t>
+          <t>even_MAG-GUT76426.fa</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>210065.0317228242</v>
+        <v>211051.9591620181</v>
       </c>
       <c r="C361" t="n">
-        <v>210065.0317228242</v>
+        <v>211051.9591620181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -8744,14 +8744,14 @@
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86758.fa</t>
+          <t>even_MAG-GUT76486.fa</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>211726.8149346304</v>
+        <v>249194.9144170911</v>
       </c>
       <c r="C362" t="n">
-        <v>211726.8149346304</v>
+        <v>249194.9144170911</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -8767,14 +8767,14 @@
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87407.fa</t>
+          <t>even_MAG-GUT76530.fa</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>192230.5835203134</v>
+        <v>254700.1746267863</v>
       </c>
       <c r="C363" t="n">
-        <v>192230.5835203134</v>
+        <v>254700.1746267863</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -8790,14 +8790,14 @@
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87621.fa</t>
+          <t>even_MAG-GUT77471.fa</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>190879.9565177922</v>
+        <v>162527.0635015448</v>
       </c>
       <c r="C364" t="n">
-        <v>190879.9565177922</v>
+        <v>162527.0635015448</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -8813,14 +8813,14 @@
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87674.fa</t>
+          <t>even_MAG-GUT7751.fa</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>192230.5835203134</v>
+        <v>56071.39151582525</v>
       </c>
       <c r="C365" t="n">
-        <v>192230.5835203134</v>
+        <v>56071.39151582525</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -8836,14 +8836,14 @@
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87941.fa</t>
+          <t>even_MAG-GUT77576.fa</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>184330.8935303371</v>
+        <v>265594.8579347576</v>
       </c>
       <c r="C366" t="n">
-        <v>184330.8935303371</v>
+        <v>265594.8579347576</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -8859,14 +8859,14 @@
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88016.fa</t>
+          <t>even_MAG-GUT80232.fa</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>218929.6558834773</v>
+        <v>148734.3792369258</v>
       </c>
       <c r="C367" t="n">
-        <v>218929.6558834773</v>
+        <v>148734.3792369258</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -8882,14 +8882,14 @@
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88714.fa</t>
+          <t>even_MAG-GUT83501.fa</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>156669.4607380121</v>
+        <v>93519.2377841562</v>
       </c>
       <c r="C368" t="n">
-        <v>156669.4607380121</v>
+        <v>93519.2377841562</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -8905,14 +8905,14 @@
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88733.fa</t>
+          <t>even_MAG-GUT83503.fa</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>184483.2820273956</v>
+        <v>114305.0641565351</v>
       </c>
       <c r="C369" t="n">
-        <v>184483.2820273956</v>
+        <v>114305.0641565351</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -8928,14 +8928,14 @@
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88737.fa</t>
+          <t>even_MAG-GUT83507.fa</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>191004.7760797052</v>
+        <v>146030.3352219252</v>
       </c>
       <c r="C370" t="n">
-        <v>191004.7760797052</v>
+        <v>146030.3352219252</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -8951,14 +8951,14 @@
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88876.fa</t>
+          <t>even_MAG-GUT86747.fa</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>156669.4607380121</v>
+        <v>210065.0317228242</v>
       </c>
       <c r="C371" t="n">
-        <v>156669.4607380121</v>
+        <v>210065.0317228242</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -8974,14 +8974,14 @@
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89068.fa</t>
+          <t>even_MAG-GUT86758.fa</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>176646.260186426</v>
+        <v>211726.8149346304</v>
       </c>
       <c r="C372" t="n">
-        <v>176646.260186426</v>
+        <v>211726.8149346304</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -8997,14 +8997,14 @@
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89102.fa</t>
+          <t>even_MAG-GUT87407.fa</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>233131.7423765932</v>
+        <v>192230.5835203134</v>
       </c>
       <c r="C373" t="n">
-        <v>233131.7423765932</v>
+        <v>192230.5835203134</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -9020,14 +9020,14 @@
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89162.fa</t>
+          <t>even_MAG-GUT87621.fa</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>76247.54316583238</v>
+        <v>190879.9565177922</v>
       </c>
       <c r="C374" t="n">
-        <v>76247.54316583238</v>
+        <v>190879.9565177922</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -9043,14 +9043,14 @@
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89179.fa</t>
+          <t>even_MAG-GUT87674.fa</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>194617.1029039834</v>
+        <v>192230.5835203134</v>
       </c>
       <c r="C375" t="n">
-        <v>194617.1029039834</v>
+        <v>192230.5835203134</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -9066,14 +9066,14 @@
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89204.fa</t>
+          <t>even_MAG-GUT87941.fa</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>194617.1029039834</v>
+        <v>184330.8935303371</v>
       </c>
       <c r="C376" t="n">
-        <v>194617.1029039834</v>
+        <v>184330.8935303371</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -9089,14 +9089,14 @@
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89246.fa</t>
+          <t>even_MAG-GUT88016.fa</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>119756.7157701793</v>
+        <v>218929.6558834773</v>
       </c>
       <c r="C377" t="n">
-        <v>119756.7157701793</v>
+        <v>218929.6558834773</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -9112,14 +9112,14 @@
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89255.fa</t>
+          <t>even_MAG-GUT88714.fa</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>185033.0823617164</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C378" t="n">
-        <v>185033.0823617164</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -9135,14 +9135,14 @@
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89273.fa</t>
+          <t>even_MAG-GUT88733.fa</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>153350.9209799267</v>
+        <v>184483.2820273956</v>
       </c>
       <c r="C379" t="n">
-        <v>153350.9209799267</v>
+        <v>184483.2820273956</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -9158,14 +9158,14 @@
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89282.fa</t>
+          <t>even_MAG-GUT88737.fa</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>234791.3459079387</v>
+        <v>191004.7760797052</v>
       </c>
       <c r="C380" t="n">
-        <v>234791.3459079387</v>
+        <v>191004.7760797052</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -9181,14 +9181,14 @@
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89292.fa</t>
+          <t>even_MAG-GUT88876.fa</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>194469.157185953</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C381" t="n">
-        <v>194469.157185953</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -9204,14 +9204,14 @@
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89309.fa</t>
+          <t>even_MAG-GUT89068.fa</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>228612.9015230818</v>
+        <v>176646.260186426</v>
       </c>
       <c r="C382" t="n">
-        <v>228612.9015230818</v>
+        <v>176646.260186426</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -9227,14 +9227,14 @@
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89317.fa</t>
+          <t>even_MAG-GUT89102.fa</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>204218.669717965</v>
+        <v>233131.7423765932</v>
       </c>
       <c r="C383" t="n">
-        <v>204218.669717965</v>
+        <v>233131.7423765932</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -9250,14 +9250,14 @@
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89332.fa</t>
+          <t>even_MAG-GUT89162.fa</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>153350.9209799267</v>
+        <v>76247.54316583238</v>
       </c>
       <c r="C384" t="n">
-        <v>153350.9209799267</v>
+        <v>76247.54316583238</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -9273,14 +9273,14 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89335.fa</t>
+          <t>even_MAG-GUT89179.fa</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>202560.2566780145</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C385" t="n">
-        <v>202560.2566780145</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -9296,14 +9296,14 @@
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89355.fa</t>
+          <t>even_MAG-GUT89204.fa</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>187310.8358685724</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C386" t="n">
-        <v>187310.8358685724</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -9319,14 +9319,14 @@
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89363.fa</t>
+          <t>even_MAG-GUT89246.fa</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>180888.9884291364</v>
+        <v>119756.7157701793</v>
       </c>
       <c r="C387" t="n">
-        <v>180888.9884291364</v>
+        <v>119756.7157701793</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -9342,14 +9342,14 @@
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89413.fa</t>
+          <t>even_MAG-GUT89255.fa</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>198917.1854738983</v>
+        <v>185033.0823617164</v>
       </c>
       <c r="C388" t="n">
-        <v>198917.1854738983</v>
+        <v>185033.0823617164</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -9365,14 +9365,14 @@
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89577.fa</t>
+          <t>even_MAG-GUT89273.fa</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>222197.4075127287</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C389" t="n">
-        <v>222197.4075127287</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -9388,14 +9388,14 @@
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89608.fa</t>
+          <t>even_MAG-GUT89282.fa</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>119129.1264279749</v>
+        <v>234791.3459079387</v>
       </c>
       <c r="C390" t="n">
-        <v>119129.1264279749</v>
+        <v>234791.3459079387</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -9411,14 +9411,14 @@
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89668.fa</t>
+          <t>even_MAG-GUT89292.fa</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>153350.9209799267</v>
+        <v>194469.157185953</v>
       </c>
       <c r="C391" t="n">
-        <v>153350.9209799267</v>
+        <v>194469.157185953</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -9434,14 +9434,14 @@
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89684.fa</t>
+          <t>even_MAG-GUT89309.fa</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>153350.9209799267</v>
+        <v>228612.9015230818</v>
       </c>
       <c r="C392" t="n">
-        <v>153350.9209799267</v>
+        <v>228612.9015230818</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -9457,14 +9457,14 @@
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89695.fa</t>
+          <t>even_MAG-GUT89317.fa</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>149600.4232148845</v>
+        <v>204218.669717965</v>
       </c>
       <c r="C393" t="n">
-        <v>149600.4232148845</v>
+        <v>204218.669717965</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -9480,14 +9480,14 @@
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89697.fa</t>
+          <t>even_MAG-GUT89332.fa</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>149600.4232148845</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C394" t="n">
-        <v>149600.4232148845</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -9503,14 +9503,14 @@
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89720.fa</t>
+          <t>even_MAG-GUT89335.fa</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>198389.9238199346</v>
+        <v>202560.2566780145</v>
       </c>
       <c r="C395" t="n">
-        <v>198389.9238199346</v>
+        <v>202560.2566780145</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -9526,14 +9526,14 @@
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89735.fa</t>
+          <t>even_MAG-GUT89355.fa</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>221449.8195679789</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="C396" t="n">
-        <v>221449.8195679789</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -9549,14 +9549,14 @@
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89747.fa</t>
+          <t>even_MAG-GUT89363.fa</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>226864.625464834</v>
+        <v>180888.9884291364</v>
       </c>
       <c r="C397" t="n">
-        <v>226864.625464834</v>
+        <v>180888.9884291364</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -9572,14 +9572,14 @@
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89784.fa</t>
+          <t>even_MAG-GUT89413.fa</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>105485.6260064264</v>
+        <v>198917.1854738983</v>
       </c>
       <c r="C398" t="n">
-        <v>105485.6260064264</v>
+        <v>198917.1854738983</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -9595,14 +9595,14 @@
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89815.fa</t>
+          <t>even_MAG-GUT89577.fa</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>104757.9445800894</v>
+        <v>222197.4075127287</v>
       </c>
       <c r="C399" t="n">
-        <v>104757.9445800894</v>
+        <v>222197.4075127287</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -9618,14 +9618,14 @@
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89833.fa</t>
+          <t>even_MAG-GUT89608.fa</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>251534.5354302917</v>
+        <v>119129.1264279749</v>
       </c>
       <c r="C400" t="n">
-        <v>251534.5354302917</v>
+        <v>119129.1264279749</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -9641,14 +9641,14 @@
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89836.fa</t>
+          <t>even_MAG-GUT89668.fa</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>170615.9409286772</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C401" t="n">
-        <v>170615.9409286772</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -9664,14 +9664,14 @@
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89852.fa</t>
+          <t>even_MAG-GUT89684.fa</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>115885.8660318032</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C402" t="n">
-        <v>115885.8660318032</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -9687,14 +9687,14 @@
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89858.fa</t>
+          <t>even_MAG-GUT89695.fa</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>153350.9209799267</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="C403" t="n">
-        <v>153350.9209799267</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -9710,14 +9710,14 @@
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89860.fa</t>
+          <t>even_MAG-GUT89697.fa</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>153350.9209799267</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="C404" t="n">
-        <v>153350.9209799267</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -9733,14 +9733,14 @@
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89941.fa</t>
+          <t>even_MAG-GUT89720.fa</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>153350.9209799267</v>
+        <v>198389.9238199346</v>
       </c>
       <c r="C405" t="n">
-        <v>153350.9209799267</v>
+        <v>198389.9238199346</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -9756,14 +9756,14 @@
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89992.fa</t>
+          <t>even_MAG-GUT89735.fa</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>176646.260186426</v>
+        <v>221449.8195679789</v>
       </c>
       <c r="C406" t="n">
-        <v>176646.260186426</v>
+        <v>221449.8195679789</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -9779,14 +9779,14 @@
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90020.fa</t>
+          <t>even_MAG-GUT89747.fa</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>95128.19263020174</v>
+        <v>226864.625464834</v>
       </c>
       <c r="C407" t="n">
-        <v>95128.19263020174</v>
+        <v>226864.625464834</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -9802,14 +9802,14 @@
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90054.fa</t>
+          <t>even_MAG-GUT89784.fa</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>85453.92411267012</v>
+        <v>105485.6260064264</v>
       </c>
       <c r="C408" t="n">
-        <v>85453.92411267012</v>
+        <v>105485.6260064264</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -9825,14 +9825,14 @@
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90064.fa</t>
+          <t>even_MAG-GUT89815.fa</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>165633.4623069163</v>
+        <v>104757.9445800894</v>
       </c>
       <c r="C409" t="n">
-        <v>165633.4623069163</v>
+        <v>104757.9445800894</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -9848,14 +9848,14 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90077.fa</t>
+          <t>even_MAG-GUT89833.fa</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>156669.4607380121</v>
+        <v>251534.5354302917</v>
       </c>
       <c r="C410" t="n">
-        <v>156669.4607380121</v>
+        <v>251534.5354302917</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -9871,14 +9871,14 @@
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90090.fa</t>
+          <t>even_MAG-GUT89836.fa</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>267911.945018805</v>
+        <v>170615.9409286772</v>
       </c>
       <c r="C411" t="n">
-        <v>267911.945018805</v>
+        <v>170615.9409286772</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -9894,14 +9894,14 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90107.fa</t>
+          <t>even_MAG-GUT89852.fa</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>187310.8358685724</v>
+        <v>115885.8660318032</v>
       </c>
       <c r="C412" t="n">
-        <v>187310.8358685724</v>
+        <v>115885.8660318032</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -9917,14 +9917,14 @@
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90127.fa</t>
+          <t>even_MAG-GUT89858.fa</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>165017.3803024312</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C413" t="n">
-        <v>165017.3803024312</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -9940,14 +9940,14 @@
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90167.fa</t>
+          <t>even_MAG-GUT89860.fa</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>187310.8358685724</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C414" t="n">
-        <v>187310.8358685724</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -9963,14 +9963,14 @@
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90189.fa</t>
+          <t>even_MAG-GUT89941.fa</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>187310.8358685724</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C415" t="n">
-        <v>187310.8358685724</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -9986,14 +9986,14 @@
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90251.fa</t>
+          <t>even_MAG-GUT89992.fa</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>156669.4607380121</v>
+        <v>176646.260186426</v>
       </c>
       <c r="C416" t="n">
-        <v>156669.4607380121</v>
+        <v>176646.260186426</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -10009,14 +10009,14 @@
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90266.fa</t>
+          <t>even_MAG-GUT90020.fa</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>207328.1109629175</v>
+        <v>95128.19263020174</v>
       </c>
       <c r="C417" t="n">
-        <v>207328.1109629175</v>
+        <v>95128.19263020174</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -10032,14 +10032,14 @@
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90291.fa</t>
+          <t>even_MAG-GUT90054.fa</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>204218.669717965</v>
+        <v>85453.92411267012</v>
       </c>
       <c r="C418" t="n">
-        <v>204218.669717965</v>
+        <v>85453.92411267012</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -10055,14 +10055,14 @@
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90362.fa</t>
+          <t>even_MAG-GUT90064.fa</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>87461.18692968355</v>
+        <v>165633.4623069163</v>
       </c>
       <c r="C419" t="n">
-        <v>87461.18692968355</v>
+        <v>165633.4623069163</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -10078,14 +10078,14 @@
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90368.fa</t>
+          <t>even_MAG-GUT90077.fa</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>157236.3901969169</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C420" t="n">
-        <v>157236.3901969169</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -10101,14 +10101,14 @@
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90390.fa</t>
+          <t>even_MAG-GUT90090.fa</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>176646.260186426</v>
+        <v>267911.945018805</v>
       </c>
       <c r="C421" t="n">
-        <v>176646.260186426</v>
+        <v>267911.945018805</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -10124,14 +10124,14 @@
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90429.fa</t>
+          <t>even_MAG-GUT90107.fa</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>202054.5640478838</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="C422" t="n">
-        <v>202054.5640478838</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -10147,14 +10147,14 @@
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90441.fa</t>
+          <t>even_MAG-GUT90127.fa</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>113168.2358607154</v>
+        <v>165017.3803024312</v>
       </c>
       <c r="C423" t="n">
-        <v>113168.2358607154</v>
+        <v>165017.3803024312</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -10170,14 +10170,14 @@
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90444.fa</t>
+          <t>even_MAG-GUT90167.fa</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>153350.9209799267</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="C424" t="n">
-        <v>153350.9209799267</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -10193,14 +10193,14 @@
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90475.fa</t>
+          <t>even_MAG-GUT90189.fa</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>153350.9209799267</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="C425" t="n">
-        <v>153350.9209799267</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -10216,14 +10216,14 @@
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90505.fa</t>
+          <t>even_MAG-GUT90251.fa</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>194617.1029039834</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C426" t="n">
-        <v>194617.1029039834</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -10239,14 +10239,14 @@
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90508.fa</t>
+          <t>even_MAG-GUT90266.fa</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>149600.4232148845</v>
+        <v>207328.1109629175</v>
       </c>
       <c r="C427" t="n">
-        <v>149600.4232148845</v>
+        <v>207328.1109629175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -10262,14 +10262,14 @@
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90581.fa</t>
+          <t>even_MAG-GUT90291.fa</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>153350.9209799267</v>
+        <v>204218.669717965</v>
       </c>
       <c r="C428" t="n">
-        <v>153350.9209799267</v>
+        <v>204218.669717965</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -10285,14 +10285,14 @@
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90598.fa</t>
+          <t>even_MAG-GUT90362.fa</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>156669.4607380121</v>
+        <v>87461.18692968355</v>
       </c>
       <c r="C429" t="n">
-        <v>156669.4607380121</v>
+        <v>87461.18692968355</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -10308,14 +10308,14 @@
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90630.fa</t>
+          <t>even_MAG-GUT90368.fa</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>156669.4607380121</v>
+        <v>157236.3901969169</v>
       </c>
       <c r="C430" t="n">
-        <v>156669.4607380121</v>
+        <v>157236.3901969169</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -10331,14 +10331,14 @@
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90636.fa</t>
+          <t>even_MAG-GUT90390.fa</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>155025.1373645205</v>
+        <v>176646.260186426</v>
       </c>
       <c r="C431" t="n">
-        <v>155025.1373645205</v>
+        <v>176646.260186426</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -10354,14 +10354,14 @@
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90682.fa</t>
+          <t>even_MAG-GUT90429.fa</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>106610.0360631957</v>
+        <v>202054.5640478838</v>
       </c>
       <c r="C432" t="n">
-        <v>106610.0360631957</v>
+        <v>202054.5640478838</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -10377,14 +10377,14 @@
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90694.fa</t>
+          <t>even_MAG-GUT90441.fa</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>235667.6268027985</v>
+        <v>113168.2358607154</v>
       </c>
       <c r="C433" t="n">
-        <v>235667.6268027985</v>
+        <v>113168.2358607154</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -10400,14 +10400,14 @@
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90730.fa</t>
+          <t>even_MAG-GUT90444.fa</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>94218.84667138016</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C434" t="n">
-        <v>94218.84667138016</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -10423,14 +10423,14 @@
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90777.fa</t>
+          <t>even_MAG-GUT90475.fa</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>164523.5304446714</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C435" t="n">
-        <v>164523.5304446714</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -10446,14 +10446,14 @@
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90901.fa</t>
+          <t>even_MAG-GUT90505.fa</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>173618.2216731285</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C436" t="n">
-        <v>173618.2216731285</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -10469,14 +10469,14 @@
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90913.fa</t>
+          <t>even_MAG-GUT90508.fa</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>153350.9209799267</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="C437" t="n">
-        <v>153350.9209799267</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -10492,14 +10492,14 @@
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90941.fa</t>
+          <t>even_MAG-GUT90581.fa</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>99248.85860081627</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C438" t="n">
-        <v>99248.85860081627</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -10515,14 +10515,14 @@
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90946.fa</t>
+          <t>even_MAG-GUT90598.fa</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>194617.1029039834</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C439" t="n">
-        <v>194617.1029039834</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -10538,14 +10538,14 @@
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90963.fa</t>
+          <t>even_MAG-GUT90630.fa</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>87916.98345371499</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C440" t="n">
-        <v>87916.98345371499</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -10561,14 +10561,14 @@
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90975.fa</t>
+          <t>even_MAG-GUT90636.fa</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>194617.1029039834</v>
+        <v>155025.1373645205</v>
       </c>
       <c r="C441" t="n">
-        <v>194617.1029039834</v>
+        <v>155025.1373645205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -10584,14 +10584,14 @@
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91014.fa</t>
+          <t>even_MAG-GUT90671.fa</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>113168.2358607154</v>
+        <v>81668.70956886368</v>
       </c>
       <c r="C442" t="n">
-        <v>113168.2358607154</v>
+        <v>81668.70956886368</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -10607,14 +10607,14 @@
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91032.fa</t>
+          <t>even_MAG-GUT90682.fa</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>156214.5193328568</v>
+        <v>106610.0360631957</v>
       </c>
       <c r="C443" t="n">
-        <v>156214.5193328568</v>
+        <v>106610.0360631957</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -10630,14 +10630,14 @@
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91072.fa</t>
+          <t>even_MAG-GUT90694.fa</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>198917.1854738983</v>
+        <v>235667.6268027985</v>
       </c>
       <c r="C444" t="n">
-        <v>198917.1854738983</v>
+        <v>235667.6268027985</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -10653,14 +10653,14 @@
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91110.fa</t>
+          <t>even_MAG-GUT90730.fa</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>251534.5354302917</v>
+        <v>94218.84667138016</v>
       </c>
       <c r="C445" t="n">
-        <v>251534.5354302917</v>
+        <v>94218.84667138016</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -10676,14 +10676,14 @@
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91119.fa</t>
+          <t>even_MAG-GUT90775.fa</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>194617.1029039834</v>
+        <v>70828.65251122053</v>
       </c>
       <c r="C446" t="n">
-        <v>194617.1029039834</v>
+        <v>70828.65251122053</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -10699,14 +10699,14 @@
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91131.fa</t>
+          <t>even_MAG-GUT90777.fa</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>176646.260186426</v>
+        <v>164523.5304446714</v>
       </c>
       <c r="C447" t="n">
-        <v>176646.260186426</v>
+        <v>164523.5304446714</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -10722,14 +10722,14 @@
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91135.fa</t>
+          <t>even_MAG-GUT90901.fa</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>194617.1029039834</v>
+        <v>173618.2216731285</v>
       </c>
       <c r="C448" t="n">
-        <v>194617.1029039834</v>
+        <v>173618.2216731285</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -10745,14 +10745,14 @@
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91144.fa</t>
+          <t>even_MAG-GUT90913.fa</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>149600.4232148845</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C449" t="n">
-        <v>149600.4232148845</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -10768,14 +10768,14 @@
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91192.fa</t>
+          <t>even_MAG-GUT90941.fa</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>131160.2557795979</v>
+        <v>99248.85860081627</v>
       </c>
       <c r="C450" t="n">
-        <v>131160.2557795979</v>
+        <v>99248.85860081627</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -10791,14 +10791,14 @@
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91196.fa</t>
+          <t>even_MAG-GUT90946.fa</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>160500.4700392109</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C451" t="n">
-        <v>160500.4700392109</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -10814,14 +10814,14 @@
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91199.fa</t>
+          <t>even_MAG-GUT90963.fa</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>244859.8301367386</v>
+        <v>87916.98345371499</v>
       </c>
       <c r="C452" t="n">
-        <v>244859.8301367386</v>
+        <v>87916.98345371499</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -10837,14 +10837,14 @@
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91251.fa</t>
+          <t>even_MAG-GUT90975.fa</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>173437.7511362854</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C453" t="n">
-        <v>173437.7511362854</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -10860,14 +10860,14 @@
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91262.fa</t>
+          <t>even_MAG-GUT91014.fa</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>146229.7576852962</v>
+        <v>113168.2358607154</v>
       </c>
       <c r="C454" t="n">
-        <v>146229.7576852962</v>
+        <v>113168.2358607154</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -10883,14 +10883,14 @@
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91264.fa</t>
+          <t>even_MAG-GUT91032.fa</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>150242.6129923581</v>
+        <v>156214.5193328568</v>
       </c>
       <c r="C455" t="n">
-        <v>150242.6129923581</v>
+        <v>156214.5193328568</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -10906,14 +10906,14 @@
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91265.fa</t>
+          <t>even_MAG-GUT91072.fa</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>210627.4756125262</v>
+        <v>198917.1854738983</v>
       </c>
       <c r="C456" t="n">
-        <v>210627.4756125262</v>
+        <v>198917.1854738983</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -10929,14 +10929,14 @@
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91267.fa</t>
+          <t>even_MAG-GUT91110.fa</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>146229.7576852962</v>
+        <v>251534.5354302917</v>
       </c>
       <c r="C457" t="n">
-        <v>146229.7576852962</v>
+        <v>251534.5354302917</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -10952,14 +10952,14 @@
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91272.fa</t>
+          <t>even_MAG-GUT91119.fa</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>145542.8473165131</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C458" t="n">
-        <v>145542.8473165131</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -10975,14 +10975,14 @@
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91297.fa</t>
+          <t>even_MAG-GUT91131.fa</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>146498.4283959713</v>
+        <v>176646.260186426</v>
       </c>
       <c r="C459" t="n">
-        <v>146498.4283959713</v>
+        <v>176646.260186426</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -10998,14 +10998,14 @@
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91303.fa</t>
+          <t>even_MAG-GUT91135.fa</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>128788.2045063468</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C460" t="n">
-        <v>128788.2045063468</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -11021,14 +11021,14 @@
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91320.fa</t>
+          <t>even_MAG-GUT91144.fa</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>163484.604144641</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="C461" t="n">
-        <v>163484.604144641</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -11044,14 +11044,14 @@
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91328.fa</t>
+          <t>even_MAG-GUT91192.fa</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>150182.6316828302</v>
+        <v>131160.2557795979</v>
       </c>
       <c r="C462" t="n">
-        <v>150182.6316828302</v>
+        <v>131160.2557795979</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -11067,14 +11067,14 @@
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91330.fa</t>
+          <t>even_MAG-GUT91196.fa</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>161611.0378928551</v>
+        <v>160500.4700392109</v>
       </c>
       <c r="C463" t="n">
-        <v>161611.0378928551</v>
+        <v>160500.4700392109</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -11090,14 +11090,14 @@
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91355.fa</t>
+          <t>even_MAG-GUT91199.fa</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>200584.9753983271</v>
+        <v>244859.8301367386</v>
       </c>
       <c r="C464" t="n">
-        <v>200584.9753983271</v>
+        <v>244859.8301367386</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -11113,14 +11113,14 @@
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91359.fa</t>
+          <t>even_MAG-GUT91251.fa</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>201271.6318076221</v>
+        <v>173437.7511362854</v>
       </c>
       <c r="C465" t="n">
-        <v>201271.6318076221</v>
+        <v>173437.7511362854</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -11136,14 +11136,14 @@
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91370.fa</t>
+          <t>even_MAG-GUT91262.fa</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>228125.7856321877</v>
+        <v>146229.7576852962</v>
       </c>
       <c r="C466" t="n">
-        <v>228125.7856321877</v>
+        <v>146229.7576852962</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -11159,14 +11159,14 @@
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91379.fa</t>
+          <t>even_MAG-GUT91264.fa</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>213647.6940115189</v>
+        <v>150242.6129923581</v>
       </c>
       <c r="C467" t="n">
-        <v>213647.6940115189</v>
+        <v>150242.6129923581</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -11182,14 +11182,14 @@
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91385.fa</t>
+          <t>even_MAG-GUT91265.fa</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>133477.8488340852</v>
+        <v>210627.4756125262</v>
       </c>
       <c r="C468" t="n">
-        <v>133477.8488340852</v>
+        <v>210627.4756125262</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -11205,14 +11205,14 @@
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91430.fa</t>
+          <t>even_MAG-GUT91267.fa</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>231377.6868289784</v>
+        <v>146229.7576852962</v>
       </c>
       <c r="C469" t="n">
-        <v>231377.6868289784</v>
+        <v>146229.7576852962</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -11228,14 +11228,14 @@
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91432.fa</t>
+          <t>even_MAG-GUT91272.fa</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>202749.2293866925</v>
+        <v>145542.8473165131</v>
       </c>
       <c r="C470" t="n">
-        <v>202749.2293866925</v>
+        <v>145542.8473165131</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -11251,14 +11251,14 @@
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91468.fa</t>
+          <t>even_MAG-GUT91297.fa</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>132119.5142637044</v>
+        <v>146498.4283959713</v>
       </c>
       <c r="C471" t="n">
-        <v>132119.5142637044</v>
+        <v>146498.4283959713</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -11274,14 +11274,14 @@
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91470.fa</t>
+          <t>even_MAG-GUT91303.fa</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>153177.3584784595</v>
+        <v>128788.2045063468</v>
       </c>
       <c r="C472" t="n">
-        <v>153177.3584784595</v>
+        <v>128788.2045063468</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -11297,14 +11297,14 @@
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91486.fa</t>
+          <t>even_MAG-GUT91320.fa</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>132119.5142637044</v>
+        <v>163484.604144641</v>
       </c>
       <c r="C473" t="n">
-        <v>132119.5142637044</v>
+        <v>163484.604144641</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -11320,14 +11320,14 @@
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91490.fa</t>
+          <t>even_MAG-GUT91328.fa</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>132135.8611161343</v>
+        <v>150182.6316828302</v>
       </c>
       <c r="C474" t="n">
-        <v>132135.8611161343</v>
+        <v>150182.6316828302</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -11343,14 +11343,14 @@
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91491.fa</t>
+          <t>even_MAG-GUT91330.fa</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>155436.287806415</v>
+        <v>161611.0378928551</v>
       </c>
       <c r="C475" t="n">
-        <v>155436.287806415</v>
+        <v>161611.0378928551</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -11366,14 +11366,14 @@
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91492.fa</t>
+          <t>even_MAG-GUT91355.fa</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>153343.0064055122</v>
+        <v>200584.9753983271</v>
       </c>
       <c r="C476" t="n">
-        <v>153343.0064055122</v>
+        <v>200584.9753983271</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -11389,14 +11389,14 @@
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91493.fa</t>
+          <t>even_MAG-GUT91359.fa</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>196131.8531536152</v>
+        <v>201271.6318076221</v>
       </c>
       <c r="C477" t="n">
-        <v>196131.8531536152</v>
+        <v>201271.6318076221</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -11412,14 +11412,14 @@
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91496.fa</t>
+          <t>even_MAG-GUT91370.fa</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>131583.7909793486</v>
+        <v>228125.7856321877</v>
       </c>
       <c r="C478" t="n">
-        <v>131583.7909793486</v>
+        <v>228125.7856321877</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -11435,14 +11435,14 @@
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT915.fa</t>
+          <t>even_MAG-GUT91379.fa</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>166743.3800086573</v>
+        <v>213647.6940115189</v>
       </c>
       <c r="C479" t="n">
-        <v>166743.3800086573</v>
+        <v>213647.6940115189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -11458,14 +11458,14 @@
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91520.fa</t>
+          <t>even_MAG-GUT91385.fa</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>163149.1988578514</v>
+        <v>133477.8488340852</v>
       </c>
       <c r="C480" t="n">
-        <v>163149.1988578514</v>
+        <v>133477.8488340852</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -11481,14 +11481,14 @@
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91536.fa</t>
+          <t>even_MAG-GUT91430.fa</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>144878.3631743564</v>
+        <v>231377.6868289784</v>
       </c>
       <c r="C481" t="n">
-        <v>144878.3631743564</v>
+        <v>231377.6868289784</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -11504,14 +11504,14 @@
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91537.fa</t>
+          <t>even_MAG-GUT91432.fa</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>232771.0970679892</v>
+        <v>202749.2293866925</v>
       </c>
       <c r="C482" t="n">
-        <v>232771.0970679892</v>
+        <v>202749.2293866925</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -11527,14 +11527,14 @@
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91546.fa</t>
+          <t>even_MAG-GUT91468.fa</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>167312.0258462413</v>
+        <v>132119.5142637044</v>
       </c>
       <c r="C483" t="n">
-        <v>167312.0258462413</v>
+        <v>132119.5142637044</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -11550,14 +11550,14 @@
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91566.fa</t>
+          <t>even_MAG-GUT91470.fa</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>201801.4718229365</v>
+        <v>153177.3584784595</v>
       </c>
       <c r="C484" t="n">
-        <v>201801.4718229365</v>
+        <v>153177.3584784595</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -11573,14 +11573,14 @@
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91568.fa</t>
+          <t>even_MAG-GUT91486.fa</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>156731.0042667541</v>
+        <v>132119.5142637044</v>
       </c>
       <c r="C485" t="n">
-        <v>156731.0042667541</v>
+        <v>132119.5142637044</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -11596,14 +11596,14 @@
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91584.fa</t>
+          <t>even_MAG-GUT91490.fa</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>214604.4910260646</v>
+        <v>132135.8611161343</v>
       </c>
       <c r="C486" t="n">
-        <v>214604.4910260646</v>
+        <v>132135.8611161343</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -11619,14 +11619,14 @@
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91622.fa</t>
+          <t>even_MAG-GUT91491.fa</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>196440.7819739642</v>
+        <v>155436.287806415</v>
       </c>
       <c r="C487" t="n">
-        <v>196440.7819739642</v>
+        <v>155436.287806415</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -11642,14 +11642,14 @@
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91702.fa</t>
+          <t>even_MAG-GUT91492.fa</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>175277.183060823</v>
+        <v>153343.0064055122</v>
       </c>
       <c r="C488" t="n">
-        <v>175277.183060823</v>
+        <v>153343.0064055122</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -11665,14 +11665,14 @@
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91705.fa</t>
+          <t>even_MAG-GUT91493.fa</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>210121.8613120824</v>
+        <v>196131.8531536152</v>
       </c>
       <c r="C489" t="n">
-        <v>210121.8613120824</v>
+        <v>196131.8531536152</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -11688,14 +11688,14 @@
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91712.fa</t>
+          <t>even_MAG-GUT91496.fa</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>141308.5354522335</v>
+        <v>131583.7909793486</v>
       </c>
       <c r="C490" t="n">
-        <v>141308.5354522335</v>
+        <v>131583.7909793486</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -11711,14 +11711,14 @@
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91717.fa</t>
+          <t>even_MAG-GUT915.fa</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>166103.0240651629</v>
+        <v>166743.3800086573</v>
       </c>
       <c r="C491" t="n">
-        <v>166103.0240651629</v>
+        <v>166743.3800086573</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -11734,14 +11734,14 @@
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91736.fa</t>
+          <t>even_MAG-GUT91520.fa</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>169403.3314025687</v>
+        <v>163149.1988578514</v>
       </c>
       <c r="C492" t="n">
-        <v>169403.3314025687</v>
+        <v>163149.1988578514</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -11757,14 +11757,14 @@
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91762.fa</t>
+          <t>even_MAG-GUT91536.fa</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>170253.0756205434</v>
+        <v>144878.3631743564</v>
       </c>
       <c r="C493" t="n">
-        <v>170253.0756205434</v>
+        <v>144878.3631743564</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -11780,14 +11780,14 @@
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91779.fa</t>
+          <t>even_MAG-GUT91537.fa</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>151469.273751324</v>
+        <v>232771.0970679892</v>
       </c>
       <c r="C494" t="n">
-        <v>151469.273751324</v>
+        <v>232771.0970679892</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -11803,14 +11803,14 @@
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91815.fa</t>
+          <t>even_MAG-GUT91546.fa</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>124701.7739756932</v>
+        <v>167312.0258462413</v>
       </c>
       <c r="C495" t="n">
-        <v>124701.7739756932</v>
+        <v>167312.0258462413</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -11826,14 +11826,14 @@
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91816.fa</t>
+          <t>even_MAG-GUT91566.fa</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>184089.3583646905</v>
+        <v>201801.4718229365</v>
       </c>
       <c r="C496" t="n">
-        <v>184089.3583646905</v>
+        <v>201801.4718229365</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -11849,14 +11849,14 @@
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91818.fa</t>
+          <t>even_MAG-GUT91568.fa</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>124701.7739756932</v>
+        <v>156731.0042667541</v>
       </c>
       <c r="C497" t="n">
-        <v>124701.7739756932</v>
+        <v>156731.0042667541</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -11872,14 +11872,14 @@
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91821.fa</t>
+          <t>even_MAG-GUT91584.fa</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>170973.6391123302</v>
+        <v>214604.4910260646</v>
       </c>
       <c r="C498" t="n">
-        <v>170973.6391123302</v>
+        <v>214604.4910260646</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -11895,14 +11895,14 @@
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91823.fa</t>
+          <t>even_MAG-GUT91622.fa</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>153088.9856054576</v>
+        <v>196440.7819739642</v>
       </c>
       <c r="C499" t="n">
-        <v>153088.9856054576</v>
+        <v>196440.7819739642</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -11918,14 +11918,14 @@
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91830.fa</t>
+          <t>even_MAG-GUT91702.fa</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>226642.0978524758</v>
+        <v>175277.183060823</v>
       </c>
       <c r="C500" t="n">
-        <v>226642.0978524758</v>
+        <v>175277.183060823</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -11941,14 +11941,14 @@
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91833.fa</t>
+          <t>even_MAG-GUT91705.fa</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>148261.9534877843</v>
+        <v>210121.8613120824</v>
       </c>
       <c r="C501" t="n">
-        <v>148261.9534877843</v>
+        <v>210121.8613120824</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -11964,14 +11964,14 @@
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91860.fa</t>
+          <t>even_MAG-GUT91712.fa</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>109537.4986338088</v>
+        <v>141308.5354522335</v>
       </c>
       <c r="C502" t="n">
-        <v>109537.4986338088</v>
+        <v>141308.5354522335</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -11987,14 +11987,14 @@
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91882.fa</t>
+          <t>even_MAG-GUT91717.fa</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>149454.6550761132</v>
+        <v>166103.0240651629</v>
       </c>
       <c r="C503" t="n">
-        <v>149454.6550761132</v>
+        <v>166103.0240651629</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -12010,14 +12010,14 @@
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91886.fa</t>
+          <t>even_MAG-GUT91736.fa</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>181893.7723791951</v>
+        <v>169403.3314025687</v>
       </c>
       <c r="C504" t="n">
-        <v>181893.7723791951</v>
+        <v>169403.3314025687</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -12033,14 +12033,14 @@
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91887.fa</t>
+          <t>even_MAG-GUT91762.fa</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>220524.5950769555</v>
+        <v>170253.0756205434</v>
       </c>
       <c r="C505" t="n">
-        <v>220524.5950769555</v>
+        <v>170253.0756205434</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -12056,14 +12056,14 @@
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91898.fa</t>
+          <t>even_MAG-GUT91779.fa</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>159873.5366719256</v>
+        <v>151469.273751324</v>
       </c>
       <c r="C506" t="n">
-        <v>159873.5366719256</v>
+        <v>151469.273751324</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -12079,14 +12079,14 @@
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91911.fa</t>
+          <t>even_MAG-GUT91815.fa</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>139591.1556526294</v>
+        <v>124701.7739756932</v>
       </c>
       <c r="C507" t="n">
-        <v>139591.1556526294</v>
+        <v>124701.7739756932</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -12102,14 +12102,14 @@
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91912.fa</t>
+          <t>even_MAG-GUT91816.fa</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>158165.7871752279</v>
+        <v>184089.3583646905</v>
       </c>
       <c r="C508" t="n">
-        <v>158165.7871752279</v>
+        <v>184089.3583646905</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -12125,14 +12125,14 @@
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91923.fa</t>
+          <t>even_MAG-GUT91818.fa</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>146500.4099660765</v>
+        <v>124701.7739756932</v>
       </c>
       <c r="C509" t="n">
-        <v>146500.4099660765</v>
+        <v>124701.7739756932</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -12148,14 +12148,14 @@
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91926.fa</t>
+          <t>even_MAG-GUT91821.fa</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>161471.2307962728</v>
+        <v>170973.6391123302</v>
       </c>
       <c r="C510" t="n">
-        <v>161471.2307962728</v>
+        <v>170973.6391123302</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -12171,14 +12171,14 @@
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91932.fa</t>
+          <t>even_MAG-GUT91823.fa</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>157000.1685425168</v>
+        <v>153088.9856054576</v>
       </c>
       <c r="C511" t="n">
-        <v>157000.1685425168</v>
+        <v>153088.9856054576</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -12194,14 +12194,14 @@
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91939.fa</t>
+          <t>even_MAG-GUT91830.fa</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>206371.7875659065</v>
+        <v>226642.0978524758</v>
       </c>
       <c r="C512" t="n">
-        <v>206371.7875659065</v>
+        <v>226642.0978524758</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -12217,14 +12217,14 @@
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91941.fa</t>
+          <t>even_MAG-GUT91833.fa</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>163981.5290378628</v>
+        <v>148261.9534877843</v>
       </c>
       <c r="C513" t="n">
-        <v>163981.5290378628</v>
+        <v>148261.9534877843</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -12240,14 +12240,14 @@
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91943.fa</t>
+          <t>even_MAG-GUT91860.fa</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>166095.4865920786</v>
+        <v>109537.4986338088</v>
       </c>
       <c r="C514" t="n">
-        <v>166095.4865920786</v>
+        <v>109537.4986338088</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -12263,14 +12263,14 @@
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91954.fa</t>
+          <t>even_MAG-GUT91882.fa</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>163708.1898953384</v>
+        <v>149454.6550761132</v>
       </c>
       <c r="C515" t="n">
-        <v>163708.1898953384</v>
+        <v>149454.6550761132</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -12286,14 +12286,14 @@
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91958.fa</t>
+          <t>even_MAG-GUT91886.fa</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>183634.8758060238</v>
+        <v>181893.7723791951</v>
       </c>
       <c r="C516" t="n">
-        <v>183634.8758060238</v>
+        <v>181893.7723791951</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -12309,14 +12309,14 @@
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91960.fa</t>
+          <t>even_MAG-GUT91887.fa</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>175427.2390966073</v>
+        <v>220524.5950769555</v>
       </c>
       <c r="C517" t="n">
-        <v>175427.2390966073</v>
+        <v>220524.5950769555</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -12332,14 +12332,14 @@
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91967.fa</t>
+          <t>even_MAG-GUT91898.fa</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>176479.3602212387</v>
+        <v>159873.5366719256</v>
       </c>
       <c r="C518" t="n">
-        <v>176479.3602212387</v>
+        <v>159873.5366719256</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -12355,14 +12355,14 @@
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92006.fa</t>
+          <t>even_MAG-GUT91911.fa</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>129423.0374781786</v>
+        <v>139591.1556526294</v>
       </c>
       <c r="C519" t="n">
-        <v>129423.0374781786</v>
+        <v>139591.1556526294</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -12378,14 +12378,14 @@
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92066.fa</t>
+          <t>even_MAG-GUT91912.fa</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>147315.1538045972</v>
+        <v>158165.7871752279</v>
       </c>
       <c r="C520" t="n">
-        <v>147315.1538045972</v>
+        <v>158165.7871752279</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -12401,14 +12401,14 @@
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92111.fa</t>
+          <t>even_MAG-GUT91923.fa</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>156286.2473275381</v>
+        <v>146500.4099660765</v>
       </c>
       <c r="C521" t="n">
-        <v>156286.2473275381</v>
+        <v>146500.4099660765</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -12424,14 +12424,14 @@
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT940.fa</t>
+          <t>even_MAG-GUT91926.fa</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>143219.1132353277</v>
+        <v>161471.2307962728</v>
       </c>
       <c r="C522" t="n">
-        <v>143219.1132353277</v>
+        <v>161471.2307962728</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -12447,14 +12447,14 @@
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT945.fa</t>
+          <t>even_MAG-GUT91932.fa</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>201522.9050242291</v>
+        <v>157000.1685425168</v>
       </c>
       <c r="C523" t="n">
-        <v>201522.9050242291</v>
+        <v>157000.1685425168</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -12470,14 +12470,14 @@
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9766.fa</t>
+          <t>even_MAG-GUT91939.fa</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>202810.3311382733</v>
+        <v>206371.7875659065</v>
       </c>
       <c r="C524" t="n">
-        <v>202810.3311382733</v>
+        <v>206371.7875659065</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -12493,21 +12493,297 @@
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91941.fa</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>163981.5290378628</v>
+      </c>
+      <c r="C525" t="n">
+        <v>163981.5290378628</v>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91943.fa</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>166095.4865920786</v>
+      </c>
+      <c r="C526" t="n">
+        <v>166095.4865920786</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91954.fa</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>163708.1898953384</v>
+      </c>
+      <c r="C527" t="n">
+        <v>163708.1898953384</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91958.fa</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>183634.8758060238</v>
+      </c>
+      <c r="C528" t="n">
+        <v>183634.8758060238</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91960.fa</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>175427.2390966073</v>
+      </c>
+      <c r="C529" t="n">
+        <v>175427.2390966073</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91967.fa</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>176479.3602212387</v>
+      </c>
+      <c r="C530" t="n">
+        <v>176479.3602212387</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92006.fa</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>129423.0374781786</v>
+      </c>
+      <c r="C531" t="n">
+        <v>129423.0374781786</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92066.fa</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>147315.1538045972</v>
+      </c>
+      <c r="C532" t="n">
+        <v>147315.1538045972</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92111.fa</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>156286.2473275381</v>
+      </c>
+      <c r="C533" t="n">
+        <v>156286.2473275381</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT940.fa</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>143219.1132353277</v>
+      </c>
+      <c r="C534" t="n">
+        <v>143219.1132353277</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT945.fa</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>201522.9050242291</v>
+      </c>
+      <c r="C535" t="n">
+        <v>201522.9050242291</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9766.fa</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>202810.3311382733</v>
+      </c>
+      <c r="C536" t="n">
+        <v>202810.3311382733</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT984.fa</t>
         </is>
       </c>
-      <c r="B525" t="n">
+      <c r="B537" t="n">
         <v>92945.6873627859</v>
       </c>
-      <c r="C525" t="n">
+      <c r="C537" t="n">
         <v>92945.6873627859</v>
       </c>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr">
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
         <is>
           <t>c__Bacilli</t>
         </is>
